--- a/Seb's Last FM.xlsx
+++ b/Seb's Last FM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwden\Documents\GitHub\The-Music-of-Primes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3202847C-52D4-476C-90E2-72A5DDDDDC4A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD6520E-F530-4A69-9F6D-1281A43B3003}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{28CEC985-A661-4D7B-81F5-9225F8E12012}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="57">
   <si>
     <t>Freq</t>
   </si>
@@ -199,6 +199,12 @@
   <si>
     <t>Due to the miniscule sizes of these p-values I can confidently say there is a weekly pattern of how much music you listen to</t>
   </si>
+  <si>
+    <t>Listen?</t>
+  </si>
+  <si>
+    <t>Listen %</t>
+  </si>
 </sst>
 </file>
 
@@ -244,7 +250,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -427,28 +433,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -468,8 +459,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
@@ -479,17 +468,17 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="18" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
@@ -9595,8 +9584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF077D24-1D39-4E07-9755-929C3645CE83}">
   <dimension ref="A1:Y122"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9685,23 +9674,23 @@
         <f>SUM($D$2:D3)</f>
         <v>109</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="K3" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="L3" s="35"/>
-      <c r="M3" s="31" t="s">
+      <c r="L3" s="30"/>
+      <c r="M3" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="32"/>
+      <c r="N3" s="33"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -9727,15 +9716,15 @@
       <c r="H4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="28">
+      <c r="I4" s="26">
         <f>SUM(Calc!K2:K406)</f>
         <v>71</v>
       </c>
-      <c r="J4" s="28">
+      <c r="J4" s="26">
         <f>SUM('Dist Calc'!B2:B21)*I17</f>
         <v>23.035661283738325</v>
       </c>
-      <c r="K4" s="29">
+      <c r="K4" s="27">
         <f>SUM('Dist Calc'!C2:C21)*I17</f>
         <v>26.969983793361465</v>
       </c>
@@ -9743,7 +9732,7 @@
       <c r="M4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="30">
+      <c r="N4" s="34">
         <f ca="1">TODAY()</f>
         <v>43571</v>
       </c>
@@ -9772,15 +9761,15 @@
       <c r="H5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="28">
+      <c r="I5" s="26">
         <f>SUM(Calc!L2:L406)</f>
         <v>17</v>
       </c>
-      <c r="J5" s="28">
+      <c r="J5" s="26">
         <f>SUM('Dist Calc'!B22:B41)*I17</f>
         <v>24.401419964410362</v>
       </c>
-      <c r="K5" s="29">
+      <c r="K5" s="27">
         <f>SUM('Dist Calc'!C22:C41)*I17</f>
         <v>75.967589876012966</v>
       </c>
@@ -9817,15 +9806,15 @@
       <c r="H6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="28">
+      <c r="I6" s="26">
         <f>SUM(Calc!M2:M406)</f>
         <v>5</v>
       </c>
-      <c r="J6" s="28">
+      <c r="J6" s="26">
         <f>SUM('Dist Calc'!B42:B61)*I17</f>
         <v>17.885991099591394</v>
       </c>
-      <c r="K6" s="29">
+      <c r="K6" s="27">
         <f>SUM('Dist Calc'!C42:C61)*I17</f>
         <v>6.2426325084082274E-2</v>
       </c>
@@ -9857,15 +9846,15 @@
       <c r="H7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="28">
+      <c r="I7" s="26">
         <f>SUM(Calc!N2:N406)</f>
         <v>7</v>
       </c>
-      <c r="J7" s="28">
+      <c r="J7" s="26">
         <f>SUM('Dist Calc'!B62:B81)*I17</f>
         <v>9.0705572271275212</v>
       </c>
-      <c r="K7" s="29">
+      <c r="K7" s="27">
         <f>SUM('Dist Calc'!C62:C81)*I17</f>
         <v>5.5415031734515271E-9</v>
       </c>
@@ -9902,15 +9891,15 @@
       <c r="H8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="28">
+      <c r="I8" s="26">
         <f>SUM(Calc!O2:O406)</f>
         <v>2</v>
       </c>
-      <c r="J8" s="28">
+      <c r="J8" s="26">
         <f>SUM('Dist Calc'!B82:B101)*I17</f>
         <v>3.1816303750036297</v>
       </c>
-      <c r="K8" s="29">
+      <c r="K8" s="27">
         <f>SUM('Dist Calc'!C82:C101)*I17</f>
         <v>6.9939624344752893E-19</v>
       </c>
@@ -9923,7 +9912,7 @@
         <v>22.62857142857143</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -9947,28 +9936,28 @@
       <c r="H9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I9" s="28">
+      <c r="I9" s="26">
         <f>SUM(Calc!P2:P406)</f>
         <v>1</v>
       </c>
-      <c r="J9" s="28">
+      <c r="J9" s="26">
         <f>SUM('Dist Calc'!B102:B121)*I17</f>
         <v>0.77156463535091435</v>
       </c>
-      <c r="K9" s="29">
+      <c r="K9" s="27">
         <f>SUM('Dist Calc'!C102:C121)*I17</f>
         <v>6.1786960448735567E-31</v>
       </c>
       <c r="L9" s="10"/>
-      <c r="M9" s="19" t="s">
+      <c r="M9" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="N9" s="20">
+      <c r="N9" s="4">
         <f>SUM(D:D)</f>
         <v>2376</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -9992,19 +9981,26 @@
       <c r="H10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="28">
+      <c r="I10" s="26">
         <f>SUM(Calc!Q2:Q406)</f>
         <v>0</v>
       </c>
-      <c r="J10" s="28">
+      <c r="J10" s="26">
         <f>SUM('Dist Calc'!B122:B141)*I17</f>
         <v>0.12929007271022808</v>
       </c>
-      <c r="K10" s="29">
+      <c r="K10" s="27">
         <f>SUM('Dist Calc'!C122:C141)*I17</f>
         <v>1.0199191741891642E-44</v>
       </c>
       <c r="L10" s="10"/>
+      <c r="M10" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="N10" s="25">
+        <f ca="1">SUM(Calc!Y2:Y406)/N5</f>
+        <v>0.82857142857142863</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -10027,18 +10023,18 @@
         <f>SUM($D$2:D11)</f>
         <v>176</v>
       </c>
-      <c r="H11" s="36" t="s">
+      <c r="H11" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="I11" s="28">
+      <c r="I11" s="26">
         <f>SUM(Calc!R2:R406)</f>
         <v>1</v>
       </c>
-      <c r="J11" s="28">
+      <c r="J11" s="26">
         <f>SUM('Dist Calc'!B142:B161)*I17</f>
         <v>1.4960840171577713E-2</v>
       </c>
-      <c r="K11" s="29">
+      <c r="K11" s="27">
         <f>SUM('Dist Calc'!C142:C161)*J17</f>
         <v>4.6347267155824257E-60</v>
       </c>
@@ -10065,18 +10061,18 @@
         <f>SUM($D$2:D12)</f>
         <v>212</v>
       </c>
-      <c r="H12" s="36" t="s">
+      <c r="H12" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="I12" s="28">
+      <c r="I12" s="26">
         <f>SUM(Calc!S2:S406)</f>
         <v>0</v>
       </c>
-      <c r="J12" s="28">
+      <c r="J12" s="26">
         <f>SUM('Dist Calc'!B162:B181)*I17</f>
         <v>1.1946747909807813E-3</v>
       </c>
-      <c r="K12" s="29">
+      <c r="K12" s="27">
         <f>SUM('Dist Calc'!C162:C181)*J17</f>
         <v>1.6020186831044983E-76</v>
       </c>
@@ -10103,18 +10099,18 @@
         <f>SUM($D$2:D13)</f>
         <v>213</v>
       </c>
-      <c r="H13" s="36" t="s">
+      <c r="H13" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="I13" s="28">
+      <c r="I13" s="26">
         <f>SUM(Calc!T2:T406)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="28">
+      <c r="J13" s="26">
         <f>SUM('Dist Calc'!B182:B201)*I17</f>
         <v>6.5787114204681233E-5</v>
       </c>
-      <c r="K13" s="29">
+      <c r="K13" s="27">
         <f>SUM('Dist Calc'!C182:C201)*J17</f>
         <v>4.576571541655676E-94</v>
       </c>
@@ -10141,18 +10137,18 @@
         <f>SUM($D$2:D14)</f>
         <v>238</v>
       </c>
-      <c r="H14" s="36" t="s">
+      <c r="H14" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="I14" s="28">
+      <c r="I14" s="26">
         <f>SUM(Calc!U2:U406)</f>
         <v>0</v>
       </c>
-      <c r="J14" s="28">
+      <c r="J14" s="26">
         <f>SUM('Dist Calc'!B202:B221)*I17</f>
         <v>2.4964561937723555E-6</v>
       </c>
-      <c r="K14" s="29">
+      <c r="K14" s="27">
         <f>SUM('Dist Calc'!C202:C221)*J17</f>
         <v>1.4244553942674407E-112</v>
       </c>
@@ -10178,25 +10174,25 @@
         <f>SUM($D$2:D15)</f>
         <v>253</v>
       </c>
-      <c r="H15" s="36" t="s">
+      <c r="H15" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="I15" s="28">
-        <f>SUM(Calc!V2:QV406)</f>
+      <c r="I15" s="26">
+        <f>SUM(Calc!V2:V406)</f>
         <v>1</v>
       </c>
-      <c r="J15" s="28">
+      <c r="J15" s="26">
         <f>SUM('Dist Calc'!B222:B241)*I17</f>
         <v>6.5238208348369542E-8</v>
       </c>
-      <c r="K15" s="29">
+      <c r="K15" s="27">
         <f>SUM('Dist Calc'!C222:C241)*J17</f>
         <v>6.0264587922624796E-132</v>
       </c>
-      <c r="M15" s="33" t="s">
+      <c r="M15" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="N15" s="34">
+      <c r="N15" s="29">
         <f>365*N8</f>
         <v>8259.4285714285725</v>
       </c>
@@ -10251,15 +10247,15 @@
       <c r="H17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="28">
+      <c r="I17" s="26">
         <f>SUM(I4:I10)</f>
         <v>103</v>
       </c>
-      <c r="J17" s="28">
+      <c r="J17" s="26">
         <f>SUM(J4:J10)</f>
         <v>78.476114657932385</v>
       </c>
-      <c r="K17" s="29">
+      <c r="K17" s="27">
         <f>SUM(K4:K10)</f>
         <v>103.00000000000001</v>
       </c>
@@ -10285,17 +10281,17 @@
         <f>SUM($D$2:D18)</f>
         <v>265</v>
       </c>
-      <c r="H18" s="22" t="s">
+      <c r="H18" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="I18" s="24" t="s">
+      <c r="I18" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="J18" s="26">
+      <c r="J18" s="24">
         <f>_xlfn.CHISQ.TEST(I4:I10,J4:J10)</f>
         <v>6.0818242950525144E-22</v>
       </c>
-      <c r="K18" s="27">
+      <c r="K18" s="25">
         <f>_xlfn.CHISQ.TEST(I4:I10,K4:K10)</f>
         <v>0</v>
       </c>
@@ -17786,10 +17782,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDB0E1D8-8D5B-4CEF-AC8E-68B008740A99}">
-  <dimension ref="C1:V406"/>
+  <dimension ref="C1:Y406"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Y49" sqref="Y49"/>
+    <sheetView topLeftCell="L370" workbookViewId="0">
+      <selection activeCell="X19" sqref="X19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17803,7 +17799,7 @@
     <col min="9" max="9" width="7.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>7</v>
       </c>
@@ -17864,8 +17860,11 @@
       <c r="V1">
         <v>239</v>
       </c>
-    </row>
-    <row r="2" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C2">
         <f>IF(Scrobbles!$B2=C$1,Scrobbles!$D2,0)</f>
         <v>0</v>
@@ -17942,8 +17941,12 @@
         <f>IF(AND(Scrobbles!$D2&gt;=Calc!U$1+1,Scrobbles!$D2&lt;=Calc!V$1,ISBLANK(Scrobbles!$D2)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y2">
+        <f>IF(Scrobbles!D2&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C3">
         <f>IF(Scrobbles!$B3=C$1,Scrobbles!$D3,0)</f>
         <v>0</v>
@@ -18020,8 +18023,12 @@
         <f>IF(AND(Scrobbles!$D3&gt;=Calc!U$1+1,Scrobbles!$D3&lt;=Calc!V$1,ISBLANK(Scrobbles!$D3)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y3">
+        <f>IF(Scrobbles!D3&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C4">
         <f>IF(Scrobbles!$B4=C$1,Scrobbles!$D4,0)</f>
         <v>0</v>
@@ -18098,8 +18105,12 @@
         <f>IF(AND(Scrobbles!$D4&gt;=Calc!U$1+1,Scrobbles!$D4&lt;=Calc!V$1,ISBLANK(Scrobbles!$D4)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y4">
+        <f>IF(Scrobbles!D4&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C5">
         <f>IF(Scrobbles!$B5=C$1,Scrobbles!$D5,0)</f>
         <v>0</v>
@@ -18176,8 +18187,12 @@
         <f>IF(AND(Scrobbles!$D5&gt;=Calc!U$1+1,Scrobbles!$D5&lt;=Calc!V$1,ISBLANK(Scrobbles!$D5)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y5">
+        <f>IF(Scrobbles!D5&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C6">
         <f>IF(Scrobbles!$B6=C$1,Scrobbles!$D6,0)</f>
         <v>0</v>
@@ -18254,8 +18269,12 @@
         <f>IF(AND(Scrobbles!$D6&gt;=Calc!U$1+1,Scrobbles!$D6&lt;=Calc!V$1,ISBLANK(Scrobbles!$D6)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y6">
+        <f>IF(Scrobbles!D6&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C7">
         <f>IF(Scrobbles!$B7=C$1,Scrobbles!$D7,0)</f>
         <v>0</v>
@@ -18332,8 +18351,12 @@
         <f>IF(AND(Scrobbles!$D7&gt;=Calc!U$1+1,Scrobbles!$D7&lt;=Calc!V$1,ISBLANK(Scrobbles!$D7)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y7">
+        <f>IF(Scrobbles!D7&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C8">
         <f>IF(Scrobbles!$B8=C$1,Scrobbles!$D8,0)</f>
         <v>10</v>
@@ -18410,8 +18433,12 @@
         <f>IF(AND(Scrobbles!$D8&gt;=Calc!U$1+1,Scrobbles!$D8&lt;=Calc!V$1,ISBLANK(Scrobbles!$D8)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y8">
+        <f>IF(Scrobbles!D8&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C9">
         <f>IF(Scrobbles!$B9=C$1,Scrobbles!$D9,0)</f>
         <v>0</v>
@@ -18488,8 +18515,12 @@
         <f>IF(AND(Scrobbles!$D9&gt;=Calc!U$1+1,Scrobbles!$D9&lt;=Calc!V$1,ISBLANK(Scrobbles!$D9)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y9">
+        <f>IF(Scrobbles!D9&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C10">
         <f>IF(Scrobbles!$B10=C$1,Scrobbles!$D10,0)</f>
         <v>0</v>
@@ -18566,8 +18597,12 @@
         <f>IF(AND(Scrobbles!$D10&gt;=Calc!U$1+1,Scrobbles!$D10&lt;=Calc!V$1,ISBLANK(Scrobbles!$D10)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y10">
+        <f>IF(Scrobbles!D10&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C11">
         <f>IF(Scrobbles!$B11=C$1,Scrobbles!$D11,0)</f>
         <v>0</v>
@@ -18644,8 +18679,12 @@
         <f>IF(AND(Scrobbles!$D11&gt;=Calc!U$1+1,Scrobbles!$D11&lt;=Calc!V$1,ISBLANK(Scrobbles!$D11)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y11">
+        <f>IF(Scrobbles!D11&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C12">
         <f>IF(Scrobbles!$B12=C$1,Scrobbles!$D12,0)</f>
         <v>0</v>
@@ -18722,8 +18761,12 @@
         <f>IF(AND(Scrobbles!$D12&gt;=Calc!U$1+1,Scrobbles!$D12&lt;=Calc!V$1,ISBLANK(Scrobbles!$D12)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y12">
+        <f>IF(Scrobbles!D12&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C13">
         <f>IF(Scrobbles!$B13=C$1,Scrobbles!$D13,0)</f>
         <v>0</v>
@@ -18800,8 +18843,12 @@
         <f>IF(AND(Scrobbles!$D13&gt;=Calc!U$1+1,Scrobbles!$D13&lt;=Calc!V$1,ISBLANK(Scrobbles!$D13)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y13">
+        <f>IF(Scrobbles!D13&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C14">
         <f>IF(Scrobbles!$B14=C$1,Scrobbles!$D14,0)</f>
         <v>0</v>
@@ -18878,8 +18925,12 @@
         <f>IF(AND(Scrobbles!$D14&gt;=Calc!U$1+1,Scrobbles!$D14&lt;=Calc!V$1,ISBLANK(Scrobbles!$D14)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y14">
+        <f>IF(Scrobbles!D14&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C15">
         <f>IF(Scrobbles!$B15=C$1,Scrobbles!$D15,0)</f>
         <v>15</v>
@@ -18956,8 +19007,12 @@
         <f>IF(AND(Scrobbles!$D15&gt;=Calc!U$1+1,Scrobbles!$D15&lt;=Calc!V$1,ISBLANK(Scrobbles!$D15)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y15">
+        <f>IF(Scrobbles!D15&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C16">
         <f>IF(Scrobbles!$B16=C$1,Scrobbles!$D16,0)</f>
         <v>0</v>
@@ -19034,8 +19089,12 @@
         <f>IF(AND(Scrobbles!$D16&gt;=Calc!U$1+1,Scrobbles!$D16&lt;=Calc!V$1,ISBLANK(Scrobbles!$D16)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y16">
+        <f>IF(Scrobbles!D16&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C17">
         <f>IF(Scrobbles!$B17=C$1,Scrobbles!$D17,0)</f>
         <v>0</v>
@@ -19112,8 +19171,12 @@
         <f>IF(AND(Scrobbles!$D17&gt;=Calc!U$1+1,Scrobbles!$D17&lt;=Calc!V$1,ISBLANK(Scrobbles!$D17)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y17">
+        <f>IF(Scrobbles!D17&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C18">
         <f>IF(Scrobbles!$B18=C$1,Scrobbles!$D18,0)</f>
         <v>0</v>
@@ -19190,8 +19253,12 @@
         <f>IF(AND(Scrobbles!$D18&gt;=Calc!U$1+1,Scrobbles!$D18&lt;=Calc!V$1,ISBLANK(Scrobbles!$D18)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y18">
+        <f>IF(Scrobbles!D18&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C19">
         <f>IF(Scrobbles!$B19=C$1,Scrobbles!$D19,0)</f>
         <v>0</v>
@@ -19268,8 +19335,12 @@
         <f>IF(AND(Scrobbles!$D19&gt;=Calc!U$1+1,Scrobbles!$D19&lt;=Calc!V$1,ISBLANK(Scrobbles!$D19)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y19">
+        <f>IF(Scrobbles!D19&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C20">
         <f>IF(Scrobbles!$B20=C$1,Scrobbles!$D20,0)</f>
         <v>0</v>
@@ -19346,8 +19417,12 @@
         <f>IF(AND(Scrobbles!$D20&gt;=Calc!U$1+1,Scrobbles!$D20&lt;=Calc!V$1,ISBLANK(Scrobbles!$D20)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y20">
+        <f>IF(Scrobbles!D20&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C21">
         <f>IF(Scrobbles!$B21=C$1,Scrobbles!$D21,0)</f>
         <v>0</v>
@@ -19424,8 +19499,12 @@
         <f>IF(AND(Scrobbles!$D21&gt;=Calc!U$1+1,Scrobbles!$D21&lt;=Calc!V$1,ISBLANK(Scrobbles!$D21)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y21">
+        <f>IF(Scrobbles!D21&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C22">
         <f>IF(Scrobbles!$B22=C$1,Scrobbles!$D22,0)</f>
         <v>42</v>
@@ -19502,8 +19581,12 @@
         <f>IF(AND(Scrobbles!$D22&gt;=Calc!U$1+1,Scrobbles!$D22&lt;=Calc!V$1,ISBLANK(Scrobbles!$D22)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y22">
+        <f>IF(Scrobbles!D22&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C23">
         <f>IF(Scrobbles!$B23=C$1,Scrobbles!$D23,0)</f>
         <v>0</v>
@@ -19580,8 +19663,12 @@
         <f>IF(AND(Scrobbles!$D23&gt;=Calc!U$1+1,Scrobbles!$D23&lt;=Calc!V$1,ISBLANK(Scrobbles!$D23)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y23">
+        <f>IF(Scrobbles!D23&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C24">
         <f>IF(Scrobbles!$B24=C$1,Scrobbles!$D24,0)</f>
         <v>0</v>
@@ -19658,8 +19745,12 @@
         <f>IF(AND(Scrobbles!$D24&gt;=Calc!U$1+1,Scrobbles!$D24&lt;=Calc!V$1,ISBLANK(Scrobbles!$D24)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y24">
+        <f>IF(Scrobbles!D24&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C25">
         <f>IF(Scrobbles!$B25=C$1,Scrobbles!$D25,0)</f>
         <v>0</v>
@@ -19736,8 +19827,12 @@
         <f>IF(AND(Scrobbles!$D25&gt;=Calc!U$1+1,Scrobbles!$D25&lt;=Calc!V$1,ISBLANK(Scrobbles!$D25)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y25">
+        <f>IF(Scrobbles!D25&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C26">
         <f>IF(Scrobbles!$B26=C$1,Scrobbles!$D26,0)</f>
         <v>0</v>
@@ -19814,8 +19909,12 @@
         <f>IF(AND(Scrobbles!$D26&gt;=Calc!U$1+1,Scrobbles!$D26&lt;=Calc!V$1,ISBLANK(Scrobbles!$D26)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y26">
+        <f>IF(Scrobbles!D26&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C27">
         <f>IF(Scrobbles!$B27=C$1,Scrobbles!$D27,0)</f>
         <v>0</v>
@@ -19892,8 +19991,12 @@
         <f>IF(AND(Scrobbles!$D27&gt;=Calc!U$1+1,Scrobbles!$D27&lt;=Calc!V$1,ISBLANK(Scrobbles!$D27)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y27">
+        <f>IF(Scrobbles!D27&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C28">
         <f>IF(Scrobbles!$B28=C$1,Scrobbles!$D28,0)</f>
         <v>0</v>
@@ -19970,8 +20073,12 @@
         <f>IF(AND(Scrobbles!$D28&gt;=Calc!U$1+1,Scrobbles!$D28&lt;=Calc!V$1,ISBLANK(Scrobbles!$D28)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y28">
+        <f>IF(Scrobbles!D28&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C29">
         <f>IF(Scrobbles!$B29=C$1,Scrobbles!$D29,0)</f>
         <v>16</v>
@@ -20048,8 +20155,12 @@
         <f>IF(AND(Scrobbles!$D29&gt;=Calc!U$1+1,Scrobbles!$D29&lt;=Calc!V$1,ISBLANK(Scrobbles!$D29)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y29">
+        <f>IF(Scrobbles!D29&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C30">
         <f>IF(Scrobbles!$B30=C$1,Scrobbles!$D30,0)</f>
         <v>0</v>
@@ -20126,8 +20237,12 @@
         <f>IF(AND(Scrobbles!$D30&gt;=Calc!U$1+1,Scrobbles!$D30&lt;=Calc!V$1,ISBLANK(Scrobbles!$D30)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y30">
+        <f>IF(Scrobbles!D30&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C31">
         <f>IF(Scrobbles!$B31=C$1,Scrobbles!$D31,0)</f>
         <v>0</v>
@@ -20204,8 +20319,12 @@
         <f>IF(AND(Scrobbles!$D31&gt;=Calc!U$1+1,Scrobbles!$D31&lt;=Calc!V$1,ISBLANK(Scrobbles!$D31)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y31">
+        <f>IF(Scrobbles!D31&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C32">
         <f>IF(Scrobbles!$B32=C$1,Scrobbles!$D32,0)</f>
         <v>0</v>
@@ -20282,8 +20401,12 @@
         <f>IF(AND(Scrobbles!$D32&gt;=Calc!U$1+1,Scrobbles!$D32&lt;=Calc!V$1,ISBLANK(Scrobbles!$D32)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y32">
+        <f>IF(Scrobbles!D32&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C33">
         <f>IF(Scrobbles!$B33=C$1,Scrobbles!$D33,0)</f>
         <v>0</v>
@@ -20360,8 +20483,12 @@
         <f>IF(AND(Scrobbles!$D33&gt;=Calc!U$1+1,Scrobbles!$D33&lt;=Calc!V$1,ISBLANK(Scrobbles!$D33)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y33">
+        <f>IF(Scrobbles!D33&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C34">
         <f>IF(Scrobbles!$B34=C$1,Scrobbles!$D34,0)</f>
         <v>0</v>
@@ -20438,8 +20565,12 @@
         <f>IF(AND(Scrobbles!$D34&gt;=Calc!U$1+1,Scrobbles!$D34&lt;=Calc!V$1,ISBLANK(Scrobbles!$D34)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y34">
+        <f>IF(Scrobbles!D34&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C35">
         <f>IF(Scrobbles!$B35=C$1,Scrobbles!$D35,0)</f>
         <v>0</v>
@@ -20516,8 +20647,12 @@
         <f>IF(AND(Scrobbles!$D35&gt;=Calc!U$1+1,Scrobbles!$D35&lt;=Calc!V$1,ISBLANK(Scrobbles!$D35)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y35">
+        <f>IF(Scrobbles!D35&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C36">
         <f>IF(Scrobbles!$B36=C$1,Scrobbles!$D36,0)</f>
         <v>70</v>
@@ -20594,8 +20729,12 @@
         <f>IF(AND(Scrobbles!$D36&gt;=Calc!U$1+1,Scrobbles!$D36&lt;=Calc!V$1,ISBLANK(Scrobbles!$D36)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y36">
+        <f>IF(Scrobbles!D36&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C37">
         <f>IF(Scrobbles!$B37=C$1,Scrobbles!$D37,0)</f>
         <v>0</v>
@@ -20672,8 +20811,12 @@
         <f>IF(AND(Scrobbles!$D37&gt;=Calc!U$1+1,Scrobbles!$D37&lt;=Calc!V$1,ISBLANK(Scrobbles!$D37)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y37">
+        <f>IF(Scrobbles!D37&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C38">
         <f>IF(Scrobbles!$B38=C$1,Scrobbles!$D38,0)</f>
         <v>0</v>
@@ -20750,8 +20893,12 @@
         <f>IF(AND(Scrobbles!$D38&gt;=Calc!U$1+1,Scrobbles!$D38&lt;=Calc!V$1,ISBLANK(Scrobbles!$D38)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y38">
+        <f>IF(Scrobbles!D38&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C39">
         <f>IF(Scrobbles!$B39=C$1,Scrobbles!$D39,0)</f>
         <v>0</v>
@@ -20828,8 +20975,12 @@
         <f>IF(AND(Scrobbles!$D39&gt;=Calc!U$1+1,Scrobbles!$D39&lt;=Calc!V$1,ISBLANK(Scrobbles!$D39)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y39">
+        <f>IF(Scrobbles!D39&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C40">
         <f>IF(Scrobbles!$B40=C$1,Scrobbles!$D40,0)</f>
         <v>0</v>
@@ -20906,8 +21057,12 @@
         <f>IF(AND(Scrobbles!$D40&gt;=Calc!U$1+1,Scrobbles!$D40&lt;=Calc!V$1,ISBLANK(Scrobbles!$D40)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y40">
+        <f>IF(Scrobbles!D40&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C41">
         <f>IF(Scrobbles!$B41=C$1,Scrobbles!$D41,0)</f>
         <v>0</v>
@@ -20984,8 +21139,12 @@
         <f>IF(AND(Scrobbles!$D41&gt;=Calc!U$1+1,Scrobbles!$D41&lt;=Calc!V$1,ISBLANK(Scrobbles!$D41)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y41">
+        <f>IF(Scrobbles!D41&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C42">
         <f>IF(Scrobbles!$B42=C$1,Scrobbles!$D42,0)</f>
         <v>0</v>
@@ -21062,8 +21221,12 @@
         <f>IF(AND(Scrobbles!$D42&gt;=Calc!U$1+1,Scrobbles!$D42&lt;=Calc!V$1,ISBLANK(Scrobbles!$D42)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y42">
+        <f>IF(Scrobbles!D42&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C43">
         <f>IF(Scrobbles!$B43=C$1,Scrobbles!$D43,0)</f>
         <v>10</v>
@@ -21140,8 +21303,12 @@
         <f>IF(AND(Scrobbles!$D43&gt;=Calc!U$1+1,Scrobbles!$D43&lt;=Calc!V$1,ISBLANK(Scrobbles!$D43)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y43">
+        <f>IF(Scrobbles!D43&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C44">
         <f>IF(Scrobbles!$B44=C$1,Scrobbles!$D44,0)</f>
         <v>0</v>
@@ -21218,8 +21385,12 @@
         <f>IF(AND(Scrobbles!$D44&gt;=Calc!U$1+1,Scrobbles!$D44&lt;=Calc!V$1,ISBLANK(Scrobbles!$D44)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y44">
+        <f>IF(Scrobbles!D44&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C45">
         <f>IF(Scrobbles!$B45=C$1,Scrobbles!$D45,0)</f>
         <v>0</v>
@@ -21296,8 +21467,12 @@
         <f>IF(AND(Scrobbles!$D45&gt;=Calc!U$1+1,Scrobbles!$D45&lt;=Calc!V$1,ISBLANK(Scrobbles!$D45)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y45">
+        <f>IF(Scrobbles!D45&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C46">
         <f>IF(Scrobbles!$B46=C$1,Scrobbles!$D46,0)</f>
         <v>0</v>
@@ -21374,8 +21549,12 @@
         <f>IF(AND(Scrobbles!$D46&gt;=Calc!U$1+1,Scrobbles!$D46&lt;=Calc!V$1,ISBLANK(Scrobbles!$D46)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y46">
+        <f>IF(Scrobbles!D46&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C47">
         <f>IF(Scrobbles!$B47=C$1,Scrobbles!$D47,0)</f>
         <v>0</v>
@@ -21452,8 +21631,12 @@
         <f>IF(AND(Scrobbles!$D47&gt;=Calc!U$1+1,Scrobbles!$D47&lt;=Calc!V$1,ISBLANK(Scrobbles!$D47)=FALSE),1,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y47">
+        <f>IF(Scrobbles!D47&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C48">
         <f>IF(Scrobbles!$B48=C$1,Scrobbles!$D48,0)</f>
         <v>0</v>
@@ -21530,8 +21713,12 @@
         <f>IF(AND(Scrobbles!$D48&gt;=Calc!U$1+1,Scrobbles!$D48&lt;=Calc!V$1,ISBLANK(Scrobbles!$D48)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y48">
+        <f>IF(Scrobbles!D48&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C49">
         <f>IF(Scrobbles!$B49=C$1,Scrobbles!$D49,0)</f>
         <v>0</v>
@@ -21608,8 +21795,12 @@
         <f>IF(AND(Scrobbles!$D49&gt;=Calc!U$1+1,Scrobbles!$D49&lt;=Calc!V$1,ISBLANK(Scrobbles!$D49)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y49">
+        <f>IF(Scrobbles!D49&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C50">
         <f>IF(Scrobbles!$B50=C$1,Scrobbles!$D50,0)</f>
         <v>63</v>
@@ -21686,8 +21877,12 @@
         <f>IF(AND(Scrobbles!$D50&gt;=Calc!U$1+1,Scrobbles!$D50&lt;=Calc!V$1,ISBLANK(Scrobbles!$D50)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y50">
+        <f>IF(Scrobbles!D50&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C51">
         <f>IF(Scrobbles!$B51=C$1,Scrobbles!$D51,0)</f>
         <v>0</v>
@@ -21764,8 +21959,12 @@
         <f>IF(AND(Scrobbles!$D51&gt;=Calc!U$1+1,Scrobbles!$D51&lt;=Calc!V$1,ISBLANK(Scrobbles!$D51)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y51">
+        <f>IF(Scrobbles!D51&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C52">
         <f>IF(Scrobbles!$B52=C$1,Scrobbles!$D52,0)</f>
         <v>0</v>
@@ -21842,8 +22041,12 @@
         <f>IF(AND(Scrobbles!$D52&gt;=Calc!U$1+1,Scrobbles!$D52&lt;=Calc!V$1,ISBLANK(Scrobbles!$D52)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y52">
+        <f>IF(Scrobbles!D52&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C53">
         <f>IF(Scrobbles!$B53=C$1,Scrobbles!$D53,0)</f>
         <v>0</v>
@@ -21920,8 +22123,12 @@
         <f>IF(AND(Scrobbles!$D53&gt;=Calc!U$1+1,Scrobbles!$D53&lt;=Calc!V$1,ISBLANK(Scrobbles!$D53)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y53">
+        <f>IF(Scrobbles!D53&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C54">
         <f>IF(Scrobbles!$B54=C$1,Scrobbles!$D54,0)</f>
         <v>0</v>
@@ -21998,8 +22205,12 @@
         <f>IF(AND(Scrobbles!$D54&gt;=Calc!U$1+1,Scrobbles!$D54&lt;=Calc!V$1,ISBLANK(Scrobbles!$D54)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y54">
+        <f>IF(Scrobbles!D54&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C55">
         <f>IF(Scrobbles!$B55=C$1,Scrobbles!$D55,0)</f>
         <v>0</v>
@@ -22076,8 +22287,12 @@
         <f>IF(AND(Scrobbles!$D55&gt;=Calc!U$1+1,Scrobbles!$D55&lt;=Calc!V$1,ISBLANK(Scrobbles!$D55)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y55">
+        <f>IF(Scrobbles!D55&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C56">
         <f>IF(Scrobbles!$B56=C$1,Scrobbles!$D56,0)</f>
         <v>0</v>
@@ -22154,8 +22369,12 @@
         <f>IF(AND(Scrobbles!$D56&gt;=Calc!U$1+1,Scrobbles!$D56&lt;=Calc!V$1,ISBLANK(Scrobbles!$D56)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y56">
+        <f>IF(Scrobbles!D56&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C57">
         <f>IF(Scrobbles!$B57=C$1,Scrobbles!$D57,0)</f>
         <v>53</v>
@@ -22232,8 +22451,12 @@
         <f>IF(AND(Scrobbles!$D57&gt;=Calc!U$1+1,Scrobbles!$D57&lt;=Calc!V$1,ISBLANK(Scrobbles!$D57)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y57">
+        <f>IF(Scrobbles!D57&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C58">
         <f>IF(Scrobbles!$B58=C$1,Scrobbles!$D58,0)</f>
         <v>0</v>
@@ -22310,8 +22533,12 @@
         <f>IF(AND(Scrobbles!$D58&gt;=Calc!U$1+1,Scrobbles!$D58&lt;=Calc!V$1,ISBLANK(Scrobbles!$D58)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y58">
+        <f>IF(Scrobbles!D58&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C59">
         <f>IF(Scrobbles!$B59=C$1,Scrobbles!$D59,0)</f>
         <v>0</v>
@@ -22388,8 +22615,12 @@
         <f>IF(AND(Scrobbles!$D59&gt;=Calc!U$1+1,Scrobbles!$D59&lt;=Calc!V$1,ISBLANK(Scrobbles!$D59)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y59">
+        <f>IF(Scrobbles!D59&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C60">
         <f>IF(Scrobbles!$B60=C$1,Scrobbles!$D60,0)</f>
         <v>0</v>
@@ -22466,8 +22697,12 @@
         <f>IF(AND(Scrobbles!$D60&gt;=Calc!U$1+1,Scrobbles!$D60&lt;=Calc!V$1,ISBLANK(Scrobbles!$D60)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y60">
+        <f>IF(Scrobbles!D60&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C61">
         <f>IF(Scrobbles!$B61=C$1,Scrobbles!$D61,0)</f>
         <v>0</v>
@@ -22544,8 +22779,12 @@
         <f>IF(AND(Scrobbles!$D61&gt;=Calc!U$1+1,Scrobbles!$D61&lt;=Calc!V$1,ISBLANK(Scrobbles!$D61)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y61">
+        <f>IF(Scrobbles!D61&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C62">
         <f>IF(Scrobbles!$B62=C$1,Scrobbles!$D62,0)</f>
         <v>0</v>
@@ -22622,8 +22861,12 @@
         <f>IF(AND(Scrobbles!$D62&gt;=Calc!U$1+1,Scrobbles!$D62&lt;=Calc!V$1,ISBLANK(Scrobbles!$D62)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y62">
+        <f>IF(Scrobbles!D62&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C63">
         <f>IF(Scrobbles!$B63=C$1,Scrobbles!$D63,0)</f>
         <v>0</v>
@@ -22700,8 +22943,12 @@
         <f>IF(AND(Scrobbles!$D63&gt;=Calc!U$1+1,Scrobbles!$D63&lt;=Calc!V$1,ISBLANK(Scrobbles!$D63)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y63">
+        <f>IF(Scrobbles!D63&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C64">
         <f>IF(Scrobbles!$B64=C$1,Scrobbles!$D64,0)</f>
         <v>145</v>
@@ -22778,8 +23025,12 @@
         <f>IF(AND(Scrobbles!$D64&gt;=Calc!U$1+1,Scrobbles!$D64&lt;=Calc!V$1,ISBLANK(Scrobbles!$D64)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y64">
+        <f>IF(Scrobbles!D64&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C65">
         <f>IF(Scrobbles!$B65=C$1,Scrobbles!$D65,0)</f>
         <v>0</v>
@@ -22856,8 +23107,12 @@
         <f>IF(AND(Scrobbles!$D65&gt;=Calc!U$1+1,Scrobbles!$D65&lt;=Calc!V$1,ISBLANK(Scrobbles!$D65)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y65">
+        <f>IF(Scrobbles!D65&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C66">
         <f>IF(Scrobbles!$B66=C$1,Scrobbles!$D66,0)</f>
         <v>0</v>
@@ -22934,8 +23189,12 @@
         <f>IF(AND(Scrobbles!$D66&gt;=Calc!U$1+1,Scrobbles!$D66&lt;=Calc!V$1,ISBLANK(Scrobbles!$D66)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y66">
+        <f>IF(Scrobbles!D66&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C67">
         <f>IF(Scrobbles!$B67=C$1,Scrobbles!$D67,0)</f>
         <v>0</v>
@@ -23012,8 +23271,12 @@
         <f>IF(AND(Scrobbles!$D67&gt;=Calc!U$1+1,Scrobbles!$D67&lt;=Calc!V$1,ISBLANK(Scrobbles!$D67)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y67">
+        <f>IF(Scrobbles!D67&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C68">
         <f>IF(Scrobbles!$B68=C$1,Scrobbles!$D68,0)</f>
         <v>0</v>
@@ -23090,8 +23353,12 @@
         <f>IF(AND(Scrobbles!$D68&gt;=Calc!U$1+1,Scrobbles!$D68&lt;=Calc!V$1,ISBLANK(Scrobbles!$D68)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y68">
+        <f>IF(Scrobbles!D68&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C69">
         <f>IF(Scrobbles!$B69=C$1,Scrobbles!$D69,0)</f>
         <v>0</v>
@@ -23168,8 +23435,12 @@
         <f>IF(AND(Scrobbles!$D69&gt;=Calc!U$1+1,Scrobbles!$D69&lt;=Calc!V$1,ISBLANK(Scrobbles!$D69)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y69">
+        <f>IF(Scrobbles!D69&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C70">
         <f>IF(Scrobbles!$B70=C$1,Scrobbles!$D70,0)</f>
         <v>0</v>
@@ -23246,8 +23517,12 @@
         <f>IF(AND(Scrobbles!$D70&gt;=Calc!U$1+1,Scrobbles!$D70&lt;=Calc!V$1,ISBLANK(Scrobbles!$D70)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y70">
+        <f>IF(Scrobbles!D70&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C71">
         <f>IF(Scrobbles!$B71=C$1,Scrobbles!$D71,0)</f>
         <v>19</v>
@@ -23324,8 +23599,12 @@
         <f>IF(AND(Scrobbles!$D71&gt;=Calc!U$1+1,Scrobbles!$D71&lt;=Calc!V$1,ISBLANK(Scrobbles!$D71)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y71">
+        <f>IF(Scrobbles!D71&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C72">
         <f>IF(Scrobbles!$B72=C$1,Scrobbles!$D72,0)</f>
         <v>0</v>
@@ -23402,8 +23681,12 @@
         <f>IF(AND(Scrobbles!$D72&gt;=Calc!U$1+1,Scrobbles!$D72&lt;=Calc!V$1,ISBLANK(Scrobbles!$D72)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y72">
+        <f>IF(Scrobbles!D72&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C73">
         <f>IF(Scrobbles!$B73=C$1,Scrobbles!$D73,0)</f>
         <v>0</v>
@@ -23480,8 +23763,12 @@
         <f>IF(AND(Scrobbles!$D73&gt;=Calc!U$1+1,Scrobbles!$D73&lt;=Calc!V$1,ISBLANK(Scrobbles!$D73)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y73">
+        <f>IF(Scrobbles!D73&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C74">
         <f>IF(Scrobbles!$B74=C$1,Scrobbles!$D74,0)</f>
         <v>0</v>
@@ -23558,8 +23845,12 @@
         <f>IF(AND(Scrobbles!$D74&gt;=Calc!U$1+1,Scrobbles!$D74&lt;=Calc!V$1,ISBLANK(Scrobbles!$D74)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y74">
+        <f>IF(Scrobbles!D74&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C75">
         <f>IF(Scrobbles!$B75=C$1,Scrobbles!$D75,0)</f>
         <v>0</v>
@@ -23636,8 +23927,12 @@
         <f>IF(AND(Scrobbles!$D75&gt;=Calc!U$1+1,Scrobbles!$D75&lt;=Calc!V$1,ISBLANK(Scrobbles!$D75)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y75">
+        <f>IF(Scrobbles!D75&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C76">
         <f>IF(Scrobbles!$B76=C$1,Scrobbles!$D76,0)</f>
         <v>0</v>
@@ -23714,8 +24009,12 @@
         <f>IF(AND(Scrobbles!$D76&gt;=Calc!U$1+1,Scrobbles!$D76&lt;=Calc!V$1,ISBLANK(Scrobbles!$D76)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y76">
+        <f>IF(Scrobbles!D76&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C77">
         <f>IF(Scrobbles!$B77=C$1,Scrobbles!$D77,0)</f>
         <v>0</v>
@@ -23792,8 +24091,12 @@
         <f>IF(AND(Scrobbles!$D77&gt;=Calc!U$1+1,Scrobbles!$D77&lt;=Calc!V$1,ISBLANK(Scrobbles!$D77)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y77">
+        <f>IF(Scrobbles!D77&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C78">
         <f>IF(Scrobbles!$B78=C$1,Scrobbles!$D78,0)</f>
         <v>17</v>
@@ -23870,8 +24173,12 @@
         <f>IF(AND(Scrobbles!$D78&gt;=Calc!U$1+1,Scrobbles!$D78&lt;=Calc!V$1,ISBLANK(Scrobbles!$D78)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y78">
+        <f>IF(Scrobbles!D78&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C79">
         <f>IF(Scrobbles!$B79=C$1,Scrobbles!$D79,0)</f>
         <v>0</v>
@@ -23948,8 +24255,12 @@
         <f>IF(AND(Scrobbles!$D79&gt;=Calc!U$1+1,Scrobbles!$D79&lt;=Calc!V$1,ISBLANK(Scrobbles!$D79)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y79">
+        <f>IF(Scrobbles!D79&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C80">
         <f>IF(Scrobbles!$B80=C$1,Scrobbles!$D80,0)</f>
         <v>0</v>
@@ -24026,8 +24337,12 @@
         <f>IF(AND(Scrobbles!$D80&gt;=Calc!U$1+1,Scrobbles!$D80&lt;=Calc!V$1,ISBLANK(Scrobbles!$D80)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y80">
+        <f>IF(Scrobbles!D80&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C81">
         <f>IF(Scrobbles!$B81=C$1,Scrobbles!$D81,0)</f>
         <v>0</v>
@@ -24104,8 +24419,12 @@
         <f>IF(AND(Scrobbles!$D81&gt;=Calc!U$1+1,Scrobbles!$D81&lt;=Calc!V$1,ISBLANK(Scrobbles!$D81)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y81">
+        <f>IF(Scrobbles!D81&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C82">
         <f>IF(Scrobbles!$B82=C$1,Scrobbles!$D82,0)</f>
         <v>0</v>
@@ -24182,8 +24501,12 @@
         <f>IF(AND(Scrobbles!$D82&gt;=Calc!U$1+1,Scrobbles!$D82&lt;=Calc!V$1,ISBLANK(Scrobbles!$D82)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y82">
+        <f>IF(Scrobbles!D82&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C83">
         <f>IF(Scrobbles!$B83=C$1,Scrobbles!$D83,0)</f>
         <v>0</v>
@@ -24260,8 +24583,12 @@
         <f>IF(AND(Scrobbles!$D83&gt;=Calc!U$1+1,Scrobbles!$D83&lt;=Calc!V$1,ISBLANK(Scrobbles!$D83)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y83">
+        <f>IF(Scrobbles!D83&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C84">
         <f>IF(Scrobbles!$B84=C$1,Scrobbles!$D84,0)</f>
         <v>0</v>
@@ -24338,8 +24665,12 @@
         <f>IF(AND(Scrobbles!$D84&gt;=Calc!U$1+1,Scrobbles!$D84&lt;=Calc!V$1,ISBLANK(Scrobbles!$D84)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y84">
+        <f>IF(Scrobbles!D84&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C85">
         <f>IF(Scrobbles!$B85=C$1,Scrobbles!$D85,0)</f>
         <v>20</v>
@@ -24416,8 +24747,12 @@
         <f>IF(AND(Scrobbles!$D85&gt;=Calc!U$1+1,Scrobbles!$D85&lt;=Calc!V$1,ISBLANK(Scrobbles!$D85)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y85">
+        <f>IF(Scrobbles!D85&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C86">
         <f>IF(Scrobbles!$B86=C$1,Scrobbles!$D86,0)</f>
         <v>0</v>
@@ -24494,8 +24829,12 @@
         <f>IF(AND(Scrobbles!$D86&gt;=Calc!U$1+1,Scrobbles!$D86&lt;=Calc!V$1,ISBLANK(Scrobbles!$D86)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y86">
+        <f>IF(Scrobbles!D86&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C87">
         <f>IF(Scrobbles!$B87=C$1,Scrobbles!$D87,0)</f>
         <v>0</v>
@@ -24572,8 +24911,12 @@
         <f>IF(AND(Scrobbles!$D87&gt;=Calc!U$1+1,Scrobbles!$D87&lt;=Calc!V$1,ISBLANK(Scrobbles!$D87)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y87">
+        <f>IF(Scrobbles!D87&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C88">
         <f>IF(Scrobbles!$B88=C$1,Scrobbles!$D88,0)</f>
         <v>0</v>
@@ -24650,8 +24993,12 @@
         <f>IF(AND(Scrobbles!$D88&gt;=Calc!U$1+1,Scrobbles!$D88&lt;=Calc!V$1,ISBLANK(Scrobbles!$D88)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y88">
+        <f>IF(Scrobbles!D88&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C89">
         <f>IF(Scrobbles!$B89=C$1,Scrobbles!$D89,0)</f>
         <v>0</v>
@@ -24728,8 +25075,12 @@
         <f>IF(AND(Scrobbles!$D89&gt;=Calc!U$1+1,Scrobbles!$D89&lt;=Calc!V$1,ISBLANK(Scrobbles!$D89)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y89">
+        <f>IF(Scrobbles!D89&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C90">
         <f>IF(Scrobbles!$B90=C$1,Scrobbles!$D90,0)</f>
         <v>0</v>
@@ -24806,8 +25157,12 @@
         <f>IF(AND(Scrobbles!$D90&gt;=Calc!U$1+1,Scrobbles!$D90&lt;=Calc!V$1,ISBLANK(Scrobbles!$D90)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y90">
+        <f>IF(Scrobbles!D90&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C91">
         <f>IF(Scrobbles!$B91=C$1,Scrobbles!$D91,0)</f>
         <v>0</v>
@@ -24884,8 +25239,12 @@
         <f>IF(AND(Scrobbles!$D91&gt;=Calc!U$1+1,Scrobbles!$D91&lt;=Calc!V$1,ISBLANK(Scrobbles!$D91)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y91">
+        <f>IF(Scrobbles!D91&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C92">
         <f>IF(Scrobbles!$B92=C$1,Scrobbles!$D92,0)</f>
         <v>27</v>
@@ -24962,8 +25321,12 @@
         <f>IF(AND(Scrobbles!$D92&gt;=Calc!U$1+1,Scrobbles!$D92&lt;=Calc!V$1,ISBLANK(Scrobbles!$D92)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y92">
+        <f>IF(Scrobbles!D92&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C93">
         <f>IF(Scrobbles!$B93=C$1,Scrobbles!$D93,0)</f>
         <v>0</v>
@@ -25040,8 +25403,12 @@
         <f>IF(AND(Scrobbles!$D93&gt;=Calc!U$1+1,Scrobbles!$D93&lt;=Calc!V$1,ISBLANK(Scrobbles!$D93)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y93">
+        <f>IF(Scrobbles!D93&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C94">
         <f>IF(Scrobbles!$B94=C$1,Scrobbles!$D94,0)</f>
         <v>0</v>
@@ -25118,8 +25485,12 @@
         <f>IF(AND(Scrobbles!$D94&gt;=Calc!U$1+1,Scrobbles!$D94&lt;=Calc!V$1,ISBLANK(Scrobbles!$D94)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y94">
+        <f>IF(Scrobbles!D94&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C95">
         <f>IF(Scrobbles!$B95=C$1,Scrobbles!$D95,0)</f>
         <v>0</v>
@@ -25196,8 +25567,12 @@
         <f>IF(AND(Scrobbles!$D95&gt;=Calc!U$1+1,Scrobbles!$D95&lt;=Calc!V$1,ISBLANK(Scrobbles!$D95)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y95">
+        <f>IF(Scrobbles!D95&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C96">
         <f>IF(Scrobbles!$B96=C$1,Scrobbles!$D96,0)</f>
         <v>0</v>
@@ -25274,8 +25649,12 @@
         <f>IF(AND(Scrobbles!$D96&gt;=Calc!U$1+1,Scrobbles!$D96&lt;=Calc!V$1,ISBLANK(Scrobbles!$D96)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y96">
+        <f>IF(Scrobbles!D96&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C97">
         <f>IF(Scrobbles!$B97=C$1,Scrobbles!$D97,0)</f>
         <v>0</v>
@@ -25352,8 +25731,12 @@
         <f>IF(AND(Scrobbles!$D97&gt;=Calc!U$1+1,Scrobbles!$D97&lt;=Calc!V$1,ISBLANK(Scrobbles!$D97)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y97">
+        <f>IF(Scrobbles!D97&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C98">
         <f>IF(Scrobbles!$B98=C$1,Scrobbles!$D98,0)</f>
         <v>0</v>
@@ -25430,8 +25813,12 @@
         <f>IF(AND(Scrobbles!$D98&gt;=Calc!U$1+1,Scrobbles!$D98&lt;=Calc!V$1,ISBLANK(Scrobbles!$D98)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y98">
+        <f>IF(Scrobbles!D98&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C99">
         <f>IF(Scrobbles!$B99=C$1,Scrobbles!$D99,0)</f>
         <v>63</v>
@@ -25508,8 +25895,12 @@
         <f>IF(AND(Scrobbles!$D99&gt;=Calc!U$1+1,Scrobbles!$D99&lt;=Calc!V$1,ISBLANK(Scrobbles!$D99)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y99">
+        <f>IF(Scrobbles!D99&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C100">
         <f>IF(Scrobbles!$B100=C$1,Scrobbles!$D100,0)</f>
         <v>0</v>
@@ -25586,8 +25977,12 @@
         <f>IF(AND(Scrobbles!$D100&gt;=Calc!U$1+1,Scrobbles!$D100&lt;=Calc!V$1,ISBLANK(Scrobbles!$D100)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y100">
+        <f>IF(Scrobbles!D100&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C101">
         <f>IF(Scrobbles!$B101=C$1,Scrobbles!$D101,0)</f>
         <v>0</v>
@@ -25664,8 +26059,12 @@
         <f>IF(AND(Scrobbles!$D101&gt;=Calc!U$1+1,Scrobbles!$D101&lt;=Calc!V$1,ISBLANK(Scrobbles!$D101)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y101">
+        <f>IF(Scrobbles!D101&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C102">
         <f>IF(Scrobbles!$B102=C$1,Scrobbles!$D102,0)</f>
         <v>0</v>
@@ -25742,8 +26141,12 @@
         <f>IF(AND(Scrobbles!$D102&gt;=Calc!U$1+1,Scrobbles!$D102&lt;=Calc!V$1,ISBLANK(Scrobbles!$D102)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y102">
+        <f>IF(Scrobbles!D102&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C103">
         <f>IF(Scrobbles!$B103=C$1,Scrobbles!$D103,0)</f>
         <v>0</v>
@@ -25820,8 +26223,12 @@
         <f>IF(AND(Scrobbles!$D103&gt;=Calc!U$1+1,Scrobbles!$D103&lt;=Calc!V$1,ISBLANK(Scrobbles!$D103)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y103">
+        <f>IF(Scrobbles!D103&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C104">
         <f>IF(Scrobbles!$B104=C$1,Scrobbles!$D104,0)</f>
         <v>0</v>
@@ -25898,8 +26305,12 @@
         <f>IF(AND(Scrobbles!$D104&gt;=Calc!U$1+1,Scrobbles!$D104&lt;=Calc!V$1,ISBLANK(Scrobbles!$D104)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y104">
+        <f>IF(Scrobbles!D104&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C105">
         <f>IF(Scrobbles!$B105=C$1,Scrobbles!$D105,0)</f>
         <v>0</v>
@@ -25976,8 +26387,12 @@
         <f>IF(AND(Scrobbles!$D105&gt;=Calc!U$1+1,Scrobbles!$D105&lt;=Calc!V$1,ISBLANK(Scrobbles!$D105)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y105">
+        <f>IF(Scrobbles!D105&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C106">
         <f>IF(Scrobbles!$B106=C$1,Scrobbles!$D106,0)</f>
         <v>63</v>
@@ -26054,8 +26469,12 @@
         <f>IF(AND(Scrobbles!$D106&gt;=Calc!U$1+1,Scrobbles!$D106&lt;=Calc!V$1,ISBLANK(Scrobbles!$D106)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y106">
+        <f>IF(Scrobbles!D106&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C107">
         <f>IF(Scrobbles!$B107=C$1,Scrobbles!$D107,0)</f>
         <v>0</v>
@@ -26132,8 +26551,12 @@
         <f>IF(AND(Scrobbles!$D107&gt;=Calc!U$1+1,Scrobbles!$D107&lt;=Calc!V$1,ISBLANK(Scrobbles!$D107)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y107">
+        <f>IF(Scrobbles!D107&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C108">
         <f>IF(Scrobbles!$B108=C$1,Scrobbles!$D108,0)</f>
         <v>0</v>
@@ -26210,8 +26633,12 @@
         <f>IF(AND(Scrobbles!$D108&gt;=Calc!U$1+1,Scrobbles!$D108&lt;=Calc!V$1,ISBLANK(Scrobbles!$D108)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y108">
+        <f>IF(Scrobbles!D108&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C109">
         <f>IF(Scrobbles!$B109=C$1,Scrobbles!$D109,0)</f>
         <v>0</v>
@@ -26288,8 +26715,12 @@
         <f>IF(AND(Scrobbles!$D109&gt;=Calc!U$1+1,Scrobbles!$D109&lt;=Calc!V$1,ISBLANK(Scrobbles!$D109)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y109">
+        <f>IF(Scrobbles!D109&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C110">
         <f>IF(Scrobbles!$B110=C$1,Scrobbles!$D110,0)</f>
         <v>0</v>
@@ -26366,8 +26797,12 @@
         <f>IF(AND(Scrobbles!$D110&gt;=Calc!U$1+1,Scrobbles!$D110&lt;=Calc!V$1,ISBLANK(Scrobbles!$D110)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y110">
+        <f>IF(Scrobbles!D110&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C111">
         <f>IF(Scrobbles!$B111=C$1,Scrobbles!$D111,0)</f>
         <v>0</v>
@@ -26444,8 +26879,12 @@
         <f>IF(AND(Scrobbles!$D111&gt;=Calc!U$1+1,Scrobbles!$D111&lt;=Calc!V$1,ISBLANK(Scrobbles!$D111)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y111">
+        <f>IF(Scrobbles!D111&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C112">
         <f>IF(Scrobbles!$B112=C$1,Scrobbles!$D112,0)</f>
         <v>0</v>
@@ -26522,8 +26961,12 @@
         <f>IF(AND(Scrobbles!$D112&gt;=Calc!U$1+1,Scrobbles!$D112&lt;=Calc!V$1,ISBLANK(Scrobbles!$D112)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y112">
+        <f>IF(Scrobbles!D112&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C113">
         <f>IF(Scrobbles!$B113=C$1,Scrobbles!$D113,0)</f>
         <v>0</v>
@@ -26600,8 +27043,12 @@
         <f>IF(AND(Scrobbles!$D113&gt;=Calc!U$1+1,Scrobbles!$D113&lt;=Calc!V$1,ISBLANK(Scrobbles!$D113)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y113">
+        <f>IF(Scrobbles!D113&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C114">
         <f>IF(Scrobbles!$B114=C$1,Scrobbles!$D114,0)</f>
         <v>0</v>
@@ -26678,8 +27125,12 @@
         <f>IF(AND(Scrobbles!$D114&gt;=Calc!U$1+1,Scrobbles!$D114&lt;=Calc!V$1,ISBLANK(Scrobbles!$D114)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y114">
+        <f>IF(Scrobbles!D114&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C115">
         <f>IF(Scrobbles!$B115=C$1,Scrobbles!$D115,0)</f>
         <v>0</v>
@@ -26756,8 +27207,12 @@
         <f>IF(AND(Scrobbles!$D115&gt;=Calc!U$1+1,Scrobbles!$D115&lt;=Calc!V$1,ISBLANK(Scrobbles!$D115)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y115">
+        <f>IF(Scrobbles!D115&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C116">
         <f>IF(Scrobbles!$B116=C$1,Scrobbles!$D116,0)</f>
         <v>0</v>
@@ -26834,8 +27289,12 @@
         <f>IF(AND(Scrobbles!$D116&gt;=Calc!U$1+1,Scrobbles!$D116&lt;=Calc!V$1,ISBLANK(Scrobbles!$D116)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y116">
+        <f>IF(Scrobbles!D116&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C117">
         <f>IF(Scrobbles!$B117=C$1,Scrobbles!$D117,0)</f>
         <v>0</v>
@@ -26912,8 +27371,12 @@
         <f>IF(AND(Scrobbles!$D117&gt;=Calc!U$1+1,Scrobbles!$D117&lt;=Calc!V$1,ISBLANK(Scrobbles!$D117)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y117">
+        <f>IF(Scrobbles!D117&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C118">
         <f>IF(Scrobbles!$B118=C$1,Scrobbles!$D118,0)</f>
         <v>0</v>
@@ -26990,8 +27453,12 @@
         <f>IF(AND(Scrobbles!$D118&gt;=Calc!U$1+1,Scrobbles!$D118&lt;=Calc!V$1,ISBLANK(Scrobbles!$D118)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y118">
+        <f>IF(Scrobbles!D118&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C119">
         <f>IF(Scrobbles!$B119=C$1,Scrobbles!$D119,0)</f>
         <v>0</v>
@@ -27068,8 +27535,12 @@
         <f>IF(AND(Scrobbles!$D119&gt;=Calc!U$1+1,Scrobbles!$D119&lt;=Calc!V$1,ISBLANK(Scrobbles!$D119)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y119">
+        <f>IF(Scrobbles!D119&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C120">
         <f>IF(Scrobbles!$B120=C$1,Scrobbles!$D120,0)</f>
         <v>0</v>
@@ -27146,8 +27617,12 @@
         <f>IF(AND(Scrobbles!$D120&gt;=Calc!U$1+1,Scrobbles!$D120&lt;=Calc!V$1,ISBLANK(Scrobbles!$D120)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y120">
+        <f>IF(Scrobbles!D120&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C121">
         <f>IF(Scrobbles!$B121=C$1,Scrobbles!$D121,0)</f>
         <v>0</v>
@@ -27224,8 +27699,12 @@
         <f>IF(AND(Scrobbles!$D121&gt;=Calc!U$1+1,Scrobbles!$D121&lt;=Calc!V$1,ISBLANK(Scrobbles!$D121)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y121">
+        <f>IF(Scrobbles!D121&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C122">
         <f>IF(Scrobbles!$B122=C$1,Scrobbles!$D122,0)</f>
         <v>0</v>
@@ -27302,8 +27781,12 @@
         <f>IF(AND(Scrobbles!$D122&gt;=Calc!U$1+1,Scrobbles!$D122&lt;=Calc!V$1,ISBLANK(Scrobbles!$D122)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y122">
+        <f>IF(Scrobbles!D122&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C123">
         <f>IF(Scrobbles!$B123=C$1,Scrobbles!$D123,0)</f>
         <v>0</v>
@@ -27380,8 +27863,12 @@
         <f>IF(AND(Scrobbles!$D123&gt;=Calc!U$1+1,Scrobbles!$D123&lt;=Calc!V$1,ISBLANK(Scrobbles!$D123)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y123">
+        <f>IF(Scrobbles!D123&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C124">
         <f>IF(Scrobbles!$B124=C$1,Scrobbles!$D124,0)</f>
         <v>0</v>
@@ -27458,8 +27945,12 @@
         <f>IF(AND(Scrobbles!$D124&gt;=Calc!U$1+1,Scrobbles!$D124&lt;=Calc!V$1,ISBLANK(Scrobbles!$D124)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y124">
+        <f>IF(Scrobbles!D124&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C125">
         <f>IF(Scrobbles!$B125=C$1,Scrobbles!$D125,0)</f>
         <v>0</v>
@@ -27536,8 +28027,12 @@
         <f>IF(AND(Scrobbles!$D125&gt;=Calc!U$1+1,Scrobbles!$D125&lt;=Calc!V$1,ISBLANK(Scrobbles!$D125)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y125">
+        <f>IF(Scrobbles!D125&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C126">
         <f>IF(Scrobbles!$B126=C$1,Scrobbles!$D126,0)</f>
         <v>0</v>
@@ -27614,8 +28109,12 @@
         <f>IF(AND(Scrobbles!$D126&gt;=Calc!U$1+1,Scrobbles!$D126&lt;=Calc!V$1,ISBLANK(Scrobbles!$D126)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y126">
+        <f>IF(Scrobbles!D126&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C127">
         <f>IF(Scrobbles!$B127=C$1,Scrobbles!$D127,0)</f>
         <v>0</v>
@@ -27692,8 +28191,12 @@
         <f>IF(AND(Scrobbles!$D127&gt;=Calc!U$1+1,Scrobbles!$D127&lt;=Calc!V$1,ISBLANK(Scrobbles!$D127)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y127">
+        <f>IF(Scrobbles!D127&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C128">
         <f>IF(Scrobbles!$B128=C$1,Scrobbles!$D128,0)</f>
         <v>0</v>
@@ -27770,8 +28273,12 @@
         <f>IF(AND(Scrobbles!$D128&gt;=Calc!U$1+1,Scrobbles!$D128&lt;=Calc!V$1,ISBLANK(Scrobbles!$D128)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y128">
+        <f>IF(Scrobbles!D128&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C129">
         <f>IF(Scrobbles!$B129=C$1,Scrobbles!$D129,0)</f>
         <v>0</v>
@@ -27848,8 +28355,12 @@
         <f>IF(AND(Scrobbles!$D129&gt;=Calc!U$1+1,Scrobbles!$D129&lt;=Calc!V$1,ISBLANK(Scrobbles!$D129)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y129">
+        <f>IF(Scrobbles!D129&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C130">
         <f>IF(Scrobbles!$B130=C$1,Scrobbles!$D130,0)</f>
         <v>0</v>
@@ -27926,8 +28437,12 @@
         <f>IF(AND(Scrobbles!$D130&gt;=Calc!U$1+1,Scrobbles!$D130&lt;=Calc!V$1,ISBLANK(Scrobbles!$D130)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y130">
+        <f>IF(Scrobbles!D130&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C131">
         <f>IF(Scrobbles!$B131=C$1,Scrobbles!$D131,0)</f>
         <v>0</v>
@@ -28004,8 +28519,12 @@
         <f>IF(AND(Scrobbles!$D131&gt;=Calc!U$1+1,Scrobbles!$D131&lt;=Calc!V$1,ISBLANK(Scrobbles!$D131)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y131">
+        <f>IF(Scrobbles!D131&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C132">
         <f>IF(Scrobbles!$B132=C$1,Scrobbles!$D132,0)</f>
         <v>0</v>
@@ -28082,8 +28601,12 @@
         <f>IF(AND(Scrobbles!$D132&gt;=Calc!U$1+1,Scrobbles!$D132&lt;=Calc!V$1,ISBLANK(Scrobbles!$D132)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y132">
+        <f>IF(Scrobbles!D132&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C133">
         <f>IF(Scrobbles!$B133=C$1,Scrobbles!$D133,0)</f>
         <v>0</v>
@@ -28160,8 +28683,12 @@
         <f>IF(AND(Scrobbles!$D133&gt;=Calc!U$1+1,Scrobbles!$D133&lt;=Calc!V$1,ISBLANK(Scrobbles!$D133)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y133">
+        <f>IF(Scrobbles!D133&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C134">
         <f>IF(Scrobbles!$B134=C$1,Scrobbles!$D134,0)</f>
         <v>0</v>
@@ -28238,8 +28765,12 @@
         <f>IF(AND(Scrobbles!$D134&gt;=Calc!U$1+1,Scrobbles!$D134&lt;=Calc!V$1,ISBLANK(Scrobbles!$D134)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y134">
+        <f>IF(Scrobbles!D134&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C135">
         <f>IF(Scrobbles!$B135=C$1,Scrobbles!$D135,0)</f>
         <v>0</v>
@@ -28316,8 +28847,12 @@
         <f>IF(AND(Scrobbles!$D135&gt;=Calc!U$1+1,Scrobbles!$D135&lt;=Calc!V$1,ISBLANK(Scrobbles!$D135)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y135">
+        <f>IF(Scrobbles!D135&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C136">
         <f>IF(Scrobbles!$B136=C$1,Scrobbles!$D136,0)</f>
         <v>0</v>
@@ -28394,8 +28929,12 @@
         <f>IF(AND(Scrobbles!$D136&gt;=Calc!U$1+1,Scrobbles!$D136&lt;=Calc!V$1,ISBLANK(Scrobbles!$D136)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y136">
+        <f>IF(Scrobbles!D136&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C137">
         <f>IF(Scrobbles!$B137=C$1,Scrobbles!$D137,0)</f>
         <v>0</v>
@@ -28472,8 +29011,12 @@
         <f>IF(AND(Scrobbles!$D137&gt;=Calc!U$1+1,Scrobbles!$D137&lt;=Calc!V$1,ISBLANK(Scrobbles!$D137)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y137">
+        <f>IF(Scrobbles!D137&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C138">
         <f>IF(Scrobbles!$B138=C$1,Scrobbles!$D138,0)</f>
         <v>0</v>
@@ -28550,8 +29093,12 @@
         <f>IF(AND(Scrobbles!$D138&gt;=Calc!U$1+1,Scrobbles!$D138&lt;=Calc!V$1,ISBLANK(Scrobbles!$D138)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y138">
+        <f>IF(Scrobbles!D138&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C139">
         <f>IF(Scrobbles!$B139=C$1,Scrobbles!$D139,0)</f>
         <v>0</v>
@@ -28628,8 +29175,12 @@
         <f>IF(AND(Scrobbles!$D139&gt;=Calc!U$1+1,Scrobbles!$D139&lt;=Calc!V$1,ISBLANK(Scrobbles!$D139)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y139">
+        <f>IF(Scrobbles!D139&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C140">
         <f>IF(Scrobbles!$B140=C$1,Scrobbles!$D140,0)</f>
         <v>0</v>
@@ -28706,8 +29257,12 @@
         <f>IF(AND(Scrobbles!$D140&gt;=Calc!U$1+1,Scrobbles!$D140&lt;=Calc!V$1,ISBLANK(Scrobbles!$D140)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y140">
+        <f>IF(Scrobbles!D140&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C141">
         <f>IF(Scrobbles!$B141=C$1,Scrobbles!$D141,0)</f>
         <v>0</v>
@@ -28784,8 +29339,12 @@
         <f>IF(AND(Scrobbles!$D141&gt;=Calc!U$1+1,Scrobbles!$D141&lt;=Calc!V$1,ISBLANK(Scrobbles!$D141)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y141">
+        <f>IF(Scrobbles!D141&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C142">
         <f>IF(Scrobbles!$B142=C$1,Scrobbles!$D142,0)</f>
         <v>0</v>
@@ -28862,8 +29421,12 @@
         <f>IF(AND(Scrobbles!$D142&gt;=Calc!U$1+1,Scrobbles!$D142&lt;=Calc!V$1,ISBLANK(Scrobbles!$D142)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y142">
+        <f>IF(Scrobbles!D142&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C143">
         <f>IF(Scrobbles!$B143=C$1,Scrobbles!$D143,0)</f>
         <v>0</v>
@@ -28940,8 +29503,12 @@
         <f>IF(AND(Scrobbles!$D143&gt;=Calc!U$1+1,Scrobbles!$D143&lt;=Calc!V$1,ISBLANK(Scrobbles!$D143)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y143">
+        <f>IF(Scrobbles!D143&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C144">
         <f>IF(Scrobbles!$B144=C$1,Scrobbles!$D144,0)</f>
         <v>0</v>
@@ -29018,8 +29585,12 @@
         <f>IF(AND(Scrobbles!$D144&gt;=Calc!U$1+1,Scrobbles!$D144&lt;=Calc!V$1,ISBLANK(Scrobbles!$D144)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y144">
+        <f>IF(Scrobbles!D144&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C145">
         <f>IF(Scrobbles!$B145=C$1,Scrobbles!$D145,0)</f>
         <v>0</v>
@@ -29096,8 +29667,12 @@
         <f>IF(AND(Scrobbles!$D145&gt;=Calc!U$1+1,Scrobbles!$D145&lt;=Calc!V$1,ISBLANK(Scrobbles!$D145)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y145">
+        <f>IF(Scrobbles!D145&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C146">
         <f>IF(Scrobbles!$B146=C$1,Scrobbles!$D146,0)</f>
         <v>0</v>
@@ -29174,8 +29749,12 @@
         <f>IF(AND(Scrobbles!$D146&gt;=Calc!U$1+1,Scrobbles!$D146&lt;=Calc!V$1,ISBLANK(Scrobbles!$D146)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y146">
+        <f>IF(Scrobbles!D146&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C147">
         <f>IF(Scrobbles!$B147=C$1,Scrobbles!$D147,0)</f>
         <v>0</v>
@@ -29252,8 +29831,12 @@
         <f>IF(AND(Scrobbles!$D147&gt;=Calc!U$1+1,Scrobbles!$D147&lt;=Calc!V$1,ISBLANK(Scrobbles!$D147)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y147">
+        <f>IF(Scrobbles!D147&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C148">
         <f>IF(Scrobbles!$B148=C$1,Scrobbles!$D148,0)</f>
         <v>0</v>
@@ -29330,8 +29913,12 @@
         <f>IF(AND(Scrobbles!$D148&gt;=Calc!U$1+1,Scrobbles!$D148&lt;=Calc!V$1,ISBLANK(Scrobbles!$D148)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y148">
+        <f>IF(Scrobbles!D148&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C149">
         <f>IF(Scrobbles!$B149=C$1,Scrobbles!$D149,0)</f>
         <v>0</v>
@@ -29408,8 +29995,12 @@
         <f>IF(AND(Scrobbles!$D149&gt;=Calc!U$1+1,Scrobbles!$D149&lt;=Calc!V$1,ISBLANK(Scrobbles!$D149)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y149">
+        <f>IF(Scrobbles!D149&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C150">
         <f>IF(Scrobbles!$B150=C$1,Scrobbles!$D150,0)</f>
         <v>0</v>
@@ -29486,8 +30077,12 @@
         <f>IF(AND(Scrobbles!$D150&gt;=Calc!U$1+1,Scrobbles!$D150&lt;=Calc!V$1,ISBLANK(Scrobbles!$D150)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y150">
+        <f>IF(Scrobbles!D150&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C151">
         <f>IF(Scrobbles!$B151=C$1,Scrobbles!$D151,0)</f>
         <v>0</v>
@@ -29564,8 +30159,12 @@
         <f>IF(AND(Scrobbles!$D151&gt;=Calc!U$1+1,Scrobbles!$D151&lt;=Calc!V$1,ISBLANK(Scrobbles!$D151)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y151">
+        <f>IF(Scrobbles!D151&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C152">
         <f>IF(Scrobbles!$B152=C$1,Scrobbles!$D152,0)</f>
         <v>0</v>
@@ -29642,8 +30241,12 @@
         <f>IF(AND(Scrobbles!$D152&gt;=Calc!U$1+1,Scrobbles!$D152&lt;=Calc!V$1,ISBLANK(Scrobbles!$D152)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y152">
+        <f>IF(Scrobbles!D152&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C153">
         <f>IF(Scrobbles!$B153=C$1,Scrobbles!$D153,0)</f>
         <v>0</v>
@@ -29720,8 +30323,12 @@
         <f>IF(AND(Scrobbles!$D153&gt;=Calc!U$1+1,Scrobbles!$D153&lt;=Calc!V$1,ISBLANK(Scrobbles!$D153)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y153">
+        <f>IF(Scrobbles!D153&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C154">
         <f>IF(Scrobbles!$B154=C$1,Scrobbles!$D154,0)</f>
         <v>0</v>
@@ -29798,8 +30405,12 @@
         <f>IF(AND(Scrobbles!$D154&gt;=Calc!U$1+1,Scrobbles!$D154&lt;=Calc!V$1,ISBLANK(Scrobbles!$D154)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y154">
+        <f>IF(Scrobbles!D154&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C155">
         <f>IF(Scrobbles!$B155=C$1,Scrobbles!$D155,0)</f>
         <v>0</v>
@@ -29876,8 +30487,12 @@
         <f>IF(AND(Scrobbles!$D155&gt;=Calc!U$1+1,Scrobbles!$D155&lt;=Calc!V$1,ISBLANK(Scrobbles!$D155)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y155">
+        <f>IF(Scrobbles!D155&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C156">
         <f>IF(Scrobbles!$B156=C$1,Scrobbles!$D156,0)</f>
         <v>0</v>
@@ -29954,8 +30569,12 @@
         <f>IF(AND(Scrobbles!$D156&gt;=Calc!U$1+1,Scrobbles!$D156&lt;=Calc!V$1,ISBLANK(Scrobbles!$D156)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y156">
+        <f>IF(Scrobbles!D156&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C157">
         <f>IF(Scrobbles!$B157=C$1,Scrobbles!$D157,0)</f>
         <v>0</v>
@@ -30032,8 +30651,12 @@
         <f>IF(AND(Scrobbles!$D157&gt;=Calc!U$1+1,Scrobbles!$D157&lt;=Calc!V$1,ISBLANK(Scrobbles!$D157)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y157">
+        <f>IF(Scrobbles!D157&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C158">
         <f>IF(Scrobbles!$B158=C$1,Scrobbles!$D158,0)</f>
         <v>0</v>
@@ -30110,8 +30733,12 @@
         <f>IF(AND(Scrobbles!$D158&gt;=Calc!U$1+1,Scrobbles!$D158&lt;=Calc!V$1,ISBLANK(Scrobbles!$D158)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y158">
+        <f>IF(Scrobbles!D158&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C159">
         <f>IF(Scrobbles!$B159=C$1,Scrobbles!$D159,0)</f>
         <v>0</v>
@@ -30188,8 +30815,12 @@
         <f>IF(AND(Scrobbles!$D159&gt;=Calc!U$1+1,Scrobbles!$D159&lt;=Calc!V$1,ISBLANK(Scrobbles!$D159)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y159">
+        <f>IF(Scrobbles!D159&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C160">
         <f>IF(Scrobbles!$B160=C$1,Scrobbles!$D160,0)</f>
         <v>0</v>
@@ -30266,8 +30897,12 @@
         <f>IF(AND(Scrobbles!$D160&gt;=Calc!U$1+1,Scrobbles!$D160&lt;=Calc!V$1,ISBLANK(Scrobbles!$D160)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y160">
+        <f>IF(Scrobbles!D160&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C161">
         <f>IF(Scrobbles!$B161=C$1,Scrobbles!$D161,0)</f>
         <v>0</v>
@@ -30344,8 +30979,12 @@
         <f>IF(AND(Scrobbles!$D161&gt;=Calc!U$1+1,Scrobbles!$D161&lt;=Calc!V$1,ISBLANK(Scrobbles!$D161)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y161">
+        <f>IF(Scrobbles!D161&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C162">
         <f>IF(Scrobbles!$B162=C$1,Scrobbles!$D162,0)</f>
         <v>0</v>
@@ -30422,8 +31061,12 @@
         <f>IF(AND(Scrobbles!$D162&gt;=Calc!U$1+1,Scrobbles!$D162&lt;=Calc!V$1,ISBLANK(Scrobbles!$D162)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y162">
+        <f>IF(Scrobbles!D162&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C163">
         <f>IF(Scrobbles!$B163=C$1,Scrobbles!$D163,0)</f>
         <v>0</v>
@@ -30500,8 +31143,12 @@
         <f>IF(AND(Scrobbles!$D163&gt;=Calc!U$1+1,Scrobbles!$D163&lt;=Calc!V$1,ISBLANK(Scrobbles!$D163)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y163">
+        <f>IF(Scrobbles!D163&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C164">
         <f>IF(Scrobbles!$B164=C$1,Scrobbles!$D164,0)</f>
         <v>0</v>
@@ -30578,8 +31225,12 @@
         <f>IF(AND(Scrobbles!$D164&gt;=Calc!U$1+1,Scrobbles!$D164&lt;=Calc!V$1,ISBLANK(Scrobbles!$D164)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y164">
+        <f>IF(Scrobbles!D164&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C165">
         <f>IF(Scrobbles!$B165=C$1,Scrobbles!$D165,0)</f>
         <v>0</v>
@@ -30656,8 +31307,12 @@
         <f>IF(AND(Scrobbles!$D165&gt;=Calc!U$1+1,Scrobbles!$D165&lt;=Calc!V$1,ISBLANK(Scrobbles!$D165)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y165">
+        <f>IF(Scrobbles!D165&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C166">
         <f>IF(Scrobbles!$B166=C$1,Scrobbles!$D166,0)</f>
         <v>0</v>
@@ -30734,8 +31389,12 @@
         <f>IF(AND(Scrobbles!$D166&gt;=Calc!U$1+1,Scrobbles!$D166&lt;=Calc!V$1,ISBLANK(Scrobbles!$D166)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y166">
+        <f>IF(Scrobbles!D166&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C167">
         <f>IF(Scrobbles!$B167=C$1,Scrobbles!$D167,0)</f>
         <v>0</v>
@@ -30812,8 +31471,12 @@
         <f>IF(AND(Scrobbles!$D167&gt;=Calc!U$1+1,Scrobbles!$D167&lt;=Calc!V$1,ISBLANK(Scrobbles!$D167)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y167">
+        <f>IF(Scrobbles!D167&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C168">
         <f>IF(Scrobbles!$B168=C$1,Scrobbles!$D168,0)</f>
         <v>0</v>
@@ -30890,8 +31553,12 @@
         <f>IF(AND(Scrobbles!$D168&gt;=Calc!U$1+1,Scrobbles!$D168&lt;=Calc!V$1,ISBLANK(Scrobbles!$D168)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y168">
+        <f>IF(Scrobbles!D168&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C169">
         <f>IF(Scrobbles!$B169=C$1,Scrobbles!$D169,0)</f>
         <v>0</v>
@@ -30968,8 +31635,12 @@
         <f>IF(AND(Scrobbles!$D169&gt;=Calc!U$1+1,Scrobbles!$D169&lt;=Calc!V$1,ISBLANK(Scrobbles!$D169)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y169">
+        <f>IF(Scrobbles!D169&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C170">
         <f>IF(Scrobbles!$B170=C$1,Scrobbles!$D170,0)</f>
         <v>0</v>
@@ -31046,8 +31717,12 @@
         <f>IF(AND(Scrobbles!$D170&gt;=Calc!U$1+1,Scrobbles!$D170&lt;=Calc!V$1,ISBLANK(Scrobbles!$D170)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y170">
+        <f>IF(Scrobbles!D170&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C171">
         <f>IF(Scrobbles!$B171=C$1,Scrobbles!$D171,0)</f>
         <v>0</v>
@@ -31124,8 +31799,12 @@
         <f>IF(AND(Scrobbles!$D171&gt;=Calc!U$1+1,Scrobbles!$D171&lt;=Calc!V$1,ISBLANK(Scrobbles!$D171)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y171">
+        <f>IF(Scrobbles!D171&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C172">
         <f>IF(Scrobbles!$B172=C$1,Scrobbles!$D172,0)</f>
         <v>0</v>
@@ -31202,8 +31881,12 @@
         <f>IF(AND(Scrobbles!$D172&gt;=Calc!U$1+1,Scrobbles!$D172&lt;=Calc!V$1,ISBLANK(Scrobbles!$D172)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y172">
+        <f>IF(Scrobbles!D172&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C173">
         <f>IF(Scrobbles!$B173=C$1,Scrobbles!$D173,0)</f>
         <v>0</v>
@@ -31280,8 +31963,12 @@
         <f>IF(AND(Scrobbles!$D173&gt;=Calc!U$1+1,Scrobbles!$D173&lt;=Calc!V$1,ISBLANK(Scrobbles!$D173)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y173">
+        <f>IF(Scrobbles!D173&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C174">
         <f>IF(Scrobbles!$B174=C$1,Scrobbles!$D174,0)</f>
         <v>0</v>
@@ -31358,8 +32045,12 @@
         <f>IF(AND(Scrobbles!$D174&gt;=Calc!U$1+1,Scrobbles!$D174&lt;=Calc!V$1,ISBLANK(Scrobbles!$D174)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y174">
+        <f>IF(Scrobbles!D174&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C175">
         <f>IF(Scrobbles!$B175=C$1,Scrobbles!$D175,0)</f>
         <v>0</v>
@@ -31436,8 +32127,12 @@
         <f>IF(AND(Scrobbles!$D175&gt;=Calc!U$1+1,Scrobbles!$D175&lt;=Calc!V$1,ISBLANK(Scrobbles!$D175)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y175">
+        <f>IF(Scrobbles!D175&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C176">
         <f>IF(Scrobbles!$B176=C$1,Scrobbles!$D176,0)</f>
         <v>0</v>
@@ -31514,8 +32209,12 @@
         <f>IF(AND(Scrobbles!$D176&gt;=Calc!U$1+1,Scrobbles!$D176&lt;=Calc!V$1,ISBLANK(Scrobbles!$D176)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y176">
+        <f>IF(Scrobbles!D176&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C177">
         <f>IF(Scrobbles!$B177=C$1,Scrobbles!$D177,0)</f>
         <v>0</v>
@@ -31592,8 +32291,12 @@
         <f>IF(AND(Scrobbles!$D177&gt;=Calc!U$1+1,Scrobbles!$D177&lt;=Calc!V$1,ISBLANK(Scrobbles!$D177)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y177">
+        <f>IF(Scrobbles!D177&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C178">
         <f>IF(Scrobbles!$B178=C$1,Scrobbles!$D178,0)</f>
         <v>0</v>
@@ -31670,8 +32373,12 @@
         <f>IF(AND(Scrobbles!$D178&gt;=Calc!U$1+1,Scrobbles!$D178&lt;=Calc!V$1,ISBLANK(Scrobbles!$D178)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y178">
+        <f>IF(Scrobbles!D178&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C179">
         <f>IF(Scrobbles!$B179=C$1,Scrobbles!$D179,0)</f>
         <v>0</v>
@@ -31748,8 +32455,12 @@
         <f>IF(AND(Scrobbles!$D179&gt;=Calc!U$1+1,Scrobbles!$D179&lt;=Calc!V$1,ISBLANK(Scrobbles!$D179)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y179">
+        <f>IF(Scrobbles!D179&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C180">
         <f>IF(Scrobbles!$B180=C$1,Scrobbles!$D180,0)</f>
         <v>0</v>
@@ -31826,8 +32537,12 @@
         <f>IF(AND(Scrobbles!$D180&gt;=Calc!U$1+1,Scrobbles!$D180&lt;=Calc!V$1,ISBLANK(Scrobbles!$D180)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y180">
+        <f>IF(Scrobbles!D180&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C181">
         <f>IF(Scrobbles!$B181=C$1,Scrobbles!$D181,0)</f>
         <v>0</v>
@@ -31904,8 +32619,12 @@
         <f>IF(AND(Scrobbles!$D181&gt;=Calc!U$1+1,Scrobbles!$D181&lt;=Calc!V$1,ISBLANK(Scrobbles!$D181)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y181">
+        <f>IF(Scrobbles!D181&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C182">
         <f>IF(Scrobbles!$B182=C$1,Scrobbles!$D182,0)</f>
         <v>0</v>
@@ -31982,8 +32701,12 @@
         <f>IF(AND(Scrobbles!$D182&gt;=Calc!U$1+1,Scrobbles!$D182&lt;=Calc!V$1,ISBLANK(Scrobbles!$D182)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y182">
+        <f>IF(Scrobbles!D182&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C183">
         <f>IF(Scrobbles!$B183=C$1,Scrobbles!$D183,0)</f>
         <v>0</v>
@@ -32060,8 +32783,12 @@
         <f>IF(AND(Scrobbles!$D183&gt;=Calc!U$1+1,Scrobbles!$D183&lt;=Calc!V$1,ISBLANK(Scrobbles!$D183)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y183">
+        <f>IF(Scrobbles!D183&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C184">
         <f>IF(Scrobbles!$B184=C$1,Scrobbles!$D184,0)</f>
         <v>0</v>
@@ -32138,8 +32865,12 @@
         <f>IF(AND(Scrobbles!$D184&gt;=Calc!U$1+1,Scrobbles!$D184&lt;=Calc!V$1,ISBLANK(Scrobbles!$D184)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y184">
+        <f>IF(Scrobbles!D184&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C185">
         <f>IF(Scrobbles!$B185=C$1,Scrobbles!$D185,0)</f>
         <v>0</v>
@@ -32216,8 +32947,12 @@
         <f>IF(AND(Scrobbles!$D185&gt;=Calc!U$1+1,Scrobbles!$D185&lt;=Calc!V$1,ISBLANK(Scrobbles!$D185)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y185">
+        <f>IF(Scrobbles!D185&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C186">
         <f>IF(Scrobbles!$B186=C$1,Scrobbles!$D186,0)</f>
         <v>0</v>
@@ -32294,8 +33029,12 @@
         <f>IF(AND(Scrobbles!$D186&gt;=Calc!U$1+1,Scrobbles!$D186&lt;=Calc!V$1,ISBLANK(Scrobbles!$D186)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y186">
+        <f>IF(Scrobbles!D186&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C187">
         <f>IF(Scrobbles!$B187=C$1,Scrobbles!$D187,0)</f>
         <v>0</v>
@@ -32372,8 +33111,12 @@
         <f>IF(AND(Scrobbles!$D187&gt;=Calc!U$1+1,Scrobbles!$D187&lt;=Calc!V$1,ISBLANK(Scrobbles!$D187)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y187">
+        <f>IF(Scrobbles!D187&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C188">
         <f>IF(Scrobbles!$B188=C$1,Scrobbles!$D188,0)</f>
         <v>0</v>
@@ -32450,8 +33193,12 @@
         <f>IF(AND(Scrobbles!$D188&gt;=Calc!U$1+1,Scrobbles!$D188&lt;=Calc!V$1,ISBLANK(Scrobbles!$D188)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y188">
+        <f>IF(Scrobbles!D188&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C189">
         <f>IF(Scrobbles!$B189=C$1,Scrobbles!$D189,0)</f>
         <v>0</v>
@@ -32528,8 +33275,12 @@
         <f>IF(AND(Scrobbles!$D189&gt;=Calc!U$1+1,Scrobbles!$D189&lt;=Calc!V$1,ISBLANK(Scrobbles!$D189)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y189">
+        <f>IF(Scrobbles!D189&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C190">
         <f>IF(Scrobbles!$B190=C$1,Scrobbles!$D190,0)</f>
         <v>0</v>
@@ -32606,8 +33357,12 @@
         <f>IF(AND(Scrobbles!$D190&gt;=Calc!U$1+1,Scrobbles!$D190&lt;=Calc!V$1,ISBLANK(Scrobbles!$D190)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y190">
+        <f>IF(Scrobbles!D190&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C191">
         <f>IF(Scrobbles!$B191=C$1,Scrobbles!$D191,0)</f>
         <v>0</v>
@@ -32684,8 +33439,12 @@
         <f>IF(AND(Scrobbles!$D191&gt;=Calc!U$1+1,Scrobbles!$D191&lt;=Calc!V$1,ISBLANK(Scrobbles!$D191)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y191">
+        <f>IF(Scrobbles!D191&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C192">
         <f>IF(Scrobbles!$B192=C$1,Scrobbles!$D192,0)</f>
         <v>0</v>
@@ -32762,8 +33521,12 @@
         <f>IF(AND(Scrobbles!$D192&gt;=Calc!U$1+1,Scrobbles!$D192&lt;=Calc!V$1,ISBLANK(Scrobbles!$D192)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y192">
+        <f>IF(Scrobbles!D192&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C193">
         <f>IF(Scrobbles!$B193=C$1,Scrobbles!$D193,0)</f>
         <v>0</v>
@@ -32840,8 +33603,12 @@
         <f>IF(AND(Scrobbles!$D193&gt;=Calc!U$1+1,Scrobbles!$D193&lt;=Calc!V$1,ISBLANK(Scrobbles!$D193)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y193">
+        <f>IF(Scrobbles!D193&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C194">
         <f>IF(Scrobbles!$B194=C$1,Scrobbles!$D194,0)</f>
         <v>0</v>
@@ -32918,8 +33685,12 @@
         <f>IF(AND(Scrobbles!$D194&gt;=Calc!U$1+1,Scrobbles!$D194&lt;=Calc!V$1,ISBLANK(Scrobbles!$D194)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y194">
+        <f>IF(Scrobbles!D194&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C195">
         <f>IF(Scrobbles!$B195=C$1,Scrobbles!$D195,0)</f>
         <v>0</v>
@@ -32996,8 +33767,12 @@
         <f>IF(AND(Scrobbles!$D195&gt;=Calc!U$1+1,Scrobbles!$D195&lt;=Calc!V$1,ISBLANK(Scrobbles!$D195)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y195">
+        <f>IF(Scrobbles!D195&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C196">
         <f>IF(Scrobbles!$B196=C$1,Scrobbles!$D196,0)</f>
         <v>0</v>
@@ -33074,8 +33849,12 @@
         <f>IF(AND(Scrobbles!$D196&gt;=Calc!U$1+1,Scrobbles!$D196&lt;=Calc!V$1,ISBLANK(Scrobbles!$D196)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y196">
+        <f>IF(Scrobbles!D196&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C197">
         <f>IF(Scrobbles!$B197=C$1,Scrobbles!$D197,0)</f>
         <v>0</v>
@@ -33152,8 +33931,12 @@
         <f>IF(AND(Scrobbles!$D197&gt;=Calc!U$1+1,Scrobbles!$D197&lt;=Calc!V$1,ISBLANK(Scrobbles!$D197)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y197">
+        <f>IF(Scrobbles!D197&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C198">
         <f>IF(Scrobbles!$B198=C$1,Scrobbles!$D198,0)</f>
         <v>0</v>
@@ -33230,8 +34013,12 @@
         <f>IF(AND(Scrobbles!$D198&gt;=Calc!U$1+1,Scrobbles!$D198&lt;=Calc!V$1,ISBLANK(Scrobbles!$D198)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y198">
+        <f>IF(Scrobbles!D198&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C199">
         <f>IF(Scrobbles!$B199=C$1,Scrobbles!$D199,0)</f>
         <v>0</v>
@@ -33308,8 +34095,12 @@
         <f>IF(AND(Scrobbles!$D199&gt;=Calc!U$1+1,Scrobbles!$D199&lt;=Calc!V$1,ISBLANK(Scrobbles!$D199)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y199">
+        <f>IF(Scrobbles!D199&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C200">
         <f>IF(Scrobbles!$B200=C$1,Scrobbles!$D200,0)</f>
         <v>0</v>
@@ -33386,8 +34177,12 @@
         <f>IF(AND(Scrobbles!$D200&gt;=Calc!U$1+1,Scrobbles!$D200&lt;=Calc!V$1,ISBLANK(Scrobbles!$D200)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y200">
+        <f>IF(Scrobbles!D200&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C201">
         <f>IF(Scrobbles!$B201=C$1,Scrobbles!$D201,0)</f>
         <v>0</v>
@@ -33464,8 +34259,12 @@
         <f>IF(AND(Scrobbles!$D201&gt;=Calc!U$1+1,Scrobbles!$D201&lt;=Calc!V$1,ISBLANK(Scrobbles!$D201)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y201">
+        <f>IF(Scrobbles!D201&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C202">
         <f>IF(Scrobbles!$B202=C$1,Scrobbles!$D202,0)</f>
         <v>0</v>
@@ -33542,8 +34341,12 @@
         <f>IF(AND(Scrobbles!$D202&gt;=Calc!U$1+1,Scrobbles!$D202&lt;=Calc!V$1,ISBLANK(Scrobbles!$D202)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y202">
+        <f>IF(Scrobbles!D202&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C203">
         <f>IF(Scrobbles!$B203=C$1,Scrobbles!$D203,0)</f>
         <v>0</v>
@@ -33620,8 +34423,12 @@
         <f>IF(AND(Scrobbles!$D203&gt;=Calc!U$1+1,Scrobbles!$D203&lt;=Calc!V$1,ISBLANK(Scrobbles!$D203)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y203">
+        <f>IF(Scrobbles!D203&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C204">
         <f>IF(Scrobbles!$B204=C$1,Scrobbles!$D204,0)</f>
         <v>0</v>
@@ -33698,8 +34505,12 @@
         <f>IF(AND(Scrobbles!$D204&gt;=Calc!U$1+1,Scrobbles!$D204&lt;=Calc!V$1,ISBLANK(Scrobbles!$D204)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y204">
+        <f>IF(Scrobbles!D204&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C205">
         <f>IF(Scrobbles!$B205=C$1,Scrobbles!$D205,0)</f>
         <v>0</v>
@@ -33776,8 +34587,12 @@
         <f>IF(AND(Scrobbles!$D205&gt;=Calc!U$1+1,Scrobbles!$D205&lt;=Calc!V$1,ISBLANK(Scrobbles!$D205)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y205">
+        <f>IF(Scrobbles!D205&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C206">
         <f>IF(Scrobbles!$B206=C$1,Scrobbles!$D206,0)</f>
         <v>0</v>
@@ -33854,8 +34669,12 @@
         <f>IF(AND(Scrobbles!$D206&gt;=Calc!U$1+1,Scrobbles!$D206&lt;=Calc!V$1,ISBLANK(Scrobbles!$D206)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y206">
+        <f>IF(Scrobbles!D206&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C207">
         <f>IF(Scrobbles!$B207=C$1,Scrobbles!$D207,0)</f>
         <v>0</v>
@@ -33932,8 +34751,12 @@
         <f>IF(AND(Scrobbles!$D207&gt;=Calc!U$1+1,Scrobbles!$D207&lt;=Calc!V$1,ISBLANK(Scrobbles!$D207)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y207">
+        <f>IF(Scrobbles!D207&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C208">
         <f>IF(Scrobbles!$B208=C$1,Scrobbles!$D208,0)</f>
         <v>0</v>
@@ -34010,8 +34833,12 @@
         <f>IF(AND(Scrobbles!$D208&gt;=Calc!U$1+1,Scrobbles!$D208&lt;=Calc!V$1,ISBLANK(Scrobbles!$D208)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y208">
+        <f>IF(Scrobbles!D208&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C209">
         <f>IF(Scrobbles!$B209=C$1,Scrobbles!$D209,0)</f>
         <v>0</v>
@@ -34088,8 +34915,12 @@
         <f>IF(AND(Scrobbles!$D209&gt;=Calc!U$1+1,Scrobbles!$D209&lt;=Calc!V$1,ISBLANK(Scrobbles!$D209)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y209">
+        <f>IF(Scrobbles!D209&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C210">
         <f>IF(Scrobbles!$B210=C$1,Scrobbles!$D210,0)</f>
         <v>0</v>
@@ -34166,8 +34997,12 @@
         <f>IF(AND(Scrobbles!$D210&gt;=Calc!U$1+1,Scrobbles!$D210&lt;=Calc!V$1,ISBLANK(Scrobbles!$D210)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y210">
+        <f>IF(Scrobbles!D210&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C211">
         <f>IF(Scrobbles!$B211=C$1,Scrobbles!$D211,0)</f>
         <v>0</v>
@@ -34244,8 +35079,12 @@
         <f>IF(AND(Scrobbles!$D211&gt;=Calc!U$1+1,Scrobbles!$D211&lt;=Calc!V$1,ISBLANK(Scrobbles!$D211)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y211">
+        <f>IF(Scrobbles!D211&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C212">
         <f>IF(Scrobbles!$B212=C$1,Scrobbles!$D212,0)</f>
         <v>0</v>
@@ -34322,8 +35161,12 @@
         <f>IF(AND(Scrobbles!$D212&gt;=Calc!U$1+1,Scrobbles!$D212&lt;=Calc!V$1,ISBLANK(Scrobbles!$D212)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y212">
+        <f>IF(Scrobbles!D212&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C213">
         <f>IF(Scrobbles!$B213=C$1,Scrobbles!$D213,0)</f>
         <v>0</v>
@@ -34400,8 +35243,12 @@
         <f>IF(AND(Scrobbles!$D213&gt;=Calc!U$1+1,Scrobbles!$D213&lt;=Calc!V$1,ISBLANK(Scrobbles!$D213)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y213">
+        <f>IF(Scrobbles!D213&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C214">
         <f>IF(Scrobbles!$B214=C$1,Scrobbles!$D214,0)</f>
         <v>0</v>
@@ -34478,8 +35325,12 @@
         <f>IF(AND(Scrobbles!$D214&gt;=Calc!U$1+1,Scrobbles!$D214&lt;=Calc!V$1,ISBLANK(Scrobbles!$D214)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y214">
+        <f>IF(Scrobbles!D214&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C215">
         <f>IF(Scrobbles!$B215=C$1,Scrobbles!$D215,0)</f>
         <v>0</v>
@@ -34556,8 +35407,12 @@
         <f>IF(AND(Scrobbles!$D215&gt;=Calc!U$1+1,Scrobbles!$D215&lt;=Calc!V$1,ISBLANK(Scrobbles!$D215)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y215">
+        <f>IF(Scrobbles!D215&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C216">
         <f>IF(Scrobbles!$B216=C$1,Scrobbles!$D216,0)</f>
         <v>0</v>
@@ -34634,8 +35489,12 @@
         <f>IF(AND(Scrobbles!$D216&gt;=Calc!U$1+1,Scrobbles!$D216&lt;=Calc!V$1,ISBLANK(Scrobbles!$D216)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y216">
+        <f>IF(Scrobbles!D216&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C217">
         <f>IF(Scrobbles!$B217=C$1,Scrobbles!$D217,0)</f>
         <v>0</v>
@@ -34712,8 +35571,12 @@
         <f>IF(AND(Scrobbles!$D217&gt;=Calc!U$1+1,Scrobbles!$D217&lt;=Calc!V$1,ISBLANK(Scrobbles!$D217)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y217">
+        <f>IF(Scrobbles!D217&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C218">
         <f>IF(Scrobbles!$B218=C$1,Scrobbles!$D218,0)</f>
         <v>0</v>
@@ -34790,8 +35653,12 @@
         <f>IF(AND(Scrobbles!$D218&gt;=Calc!U$1+1,Scrobbles!$D218&lt;=Calc!V$1,ISBLANK(Scrobbles!$D218)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y218">
+        <f>IF(Scrobbles!D218&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C219">
         <f>IF(Scrobbles!$B219=C$1,Scrobbles!$D219,0)</f>
         <v>0</v>
@@ -34868,8 +35735,12 @@
         <f>IF(AND(Scrobbles!$D219&gt;=Calc!U$1+1,Scrobbles!$D219&lt;=Calc!V$1,ISBLANK(Scrobbles!$D219)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y219">
+        <f>IF(Scrobbles!D219&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C220">
         <f>IF(Scrobbles!$B220=C$1,Scrobbles!$D220,0)</f>
         <v>0</v>
@@ -34946,8 +35817,12 @@
         <f>IF(AND(Scrobbles!$D220&gt;=Calc!U$1+1,Scrobbles!$D220&lt;=Calc!V$1,ISBLANK(Scrobbles!$D220)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y220">
+        <f>IF(Scrobbles!D220&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C221">
         <f>IF(Scrobbles!$B221=C$1,Scrobbles!$D221,0)</f>
         <v>0</v>
@@ -35024,8 +35899,12 @@
         <f>IF(AND(Scrobbles!$D221&gt;=Calc!U$1+1,Scrobbles!$D221&lt;=Calc!V$1,ISBLANK(Scrobbles!$D221)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y221">
+        <f>IF(Scrobbles!D221&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C222">
         <f>IF(Scrobbles!$B222=C$1,Scrobbles!$D222,0)</f>
         <v>0</v>
@@ -35102,8 +35981,12 @@
         <f>IF(AND(Scrobbles!$D222&gt;=Calc!U$1+1,Scrobbles!$D222&lt;=Calc!V$1,ISBLANK(Scrobbles!$D222)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y222">
+        <f>IF(Scrobbles!D222&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C223">
         <f>IF(Scrobbles!$B223=C$1,Scrobbles!$D223,0)</f>
         <v>0</v>
@@ -35180,8 +36063,12 @@
         <f>IF(AND(Scrobbles!$D223&gt;=Calc!U$1+1,Scrobbles!$D223&lt;=Calc!V$1,ISBLANK(Scrobbles!$D223)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y223">
+        <f>IF(Scrobbles!D223&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C224">
         <f>IF(Scrobbles!$B224=C$1,Scrobbles!$D224,0)</f>
         <v>0</v>
@@ -35258,8 +36145,12 @@
         <f>IF(AND(Scrobbles!$D224&gt;=Calc!U$1+1,Scrobbles!$D224&lt;=Calc!V$1,ISBLANK(Scrobbles!$D224)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y224">
+        <f>IF(Scrobbles!D224&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C225">
         <f>IF(Scrobbles!$B225=C$1,Scrobbles!$D225,0)</f>
         <v>0</v>
@@ -35336,8 +36227,12 @@
         <f>IF(AND(Scrobbles!$D225&gt;=Calc!U$1+1,Scrobbles!$D225&lt;=Calc!V$1,ISBLANK(Scrobbles!$D225)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y225">
+        <f>IF(Scrobbles!D225&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C226">
         <f>IF(Scrobbles!$B226=C$1,Scrobbles!$D226,0)</f>
         <v>0</v>
@@ -35414,8 +36309,12 @@
         <f>IF(AND(Scrobbles!$D226&gt;=Calc!U$1+1,Scrobbles!$D226&lt;=Calc!V$1,ISBLANK(Scrobbles!$D226)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y226">
+        <f>IF(Scrobbles!D226&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C227">
         <f>IF(Scrobbles!$B227=C$1,Scrobbles!$D227,0)</f>
         <v>0</v>
@@ -35492,8 +36391,12 @@
         <f>IF(AND(Scrobbles!$D227&gt;=Calc!U$1+1,Scrobbles!$D227&lt;=Calc!V$1,ISBLANK(Scrobbles!$D227)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="228" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y227">
+        <f>IF(Scrobbles!D227&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C228">
         <f>IF(Scrobbles!$B228=C$1,Scrobbles!$D228,0)</f>
         <v>0</v>
@@ -35570,8 +36473,12 @@
         <f>IF(AND(Scrobbles!$D228&gt;=Calc!U$1+1,Scrobbles!$D228&lt;=Calc!V$1,ISBLANK(Scrobbles!$D228)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y228">
+        <f>IF(Scrobbles!D228&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C229">
         <f>IF(Scrobbles!$B229=C$1,Scrobbles!$D229,0)</f>
         <v>0</v>
@@ -35648,8 +36555,12 @@
         <f>IF(AND(Scrobbles!$D229&gt;=Calc!U$1+1,Scrobbles!$D229&lt;=Calc!V$1,ISBLANK(Scrobbles!$D229)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y229">
+        <f>IF(Scrobbles!D229&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C230">
         <f>IF(Scrobbles!$B230=C$1,Scrobbles!$D230,0)</f>
         <v>0</v>
@@ -35726,8 +36637,12 @@
         <f>IF(AND(Scrobbles!$D230&gt;=Calc!U$1+1,Scrobbles!$D230&lt;=Calc!V$1,ISBLANK(Scrobbles!$D230)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y230">
+        <f>IF(Scrobbles!D230&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C231">
         <f>IF(Scrobbles!$B231=C$1,Scrobbles!$D231,0)</f>
         <v>0</v>
@@ -35804,8 +36719,12 @@
         <f>IF(AND(Scrobbles!$D231&gt;=Calc!U$1+1,Scrobbles!$D231&lt;=Calc!V$1,ISBLANK(Scrobbles!$D231)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y231">
+        <f>IF(Scrobbles!D231&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C232">
         <f>IF(Scrobbles!$B232=C$1,Scrobbles!$D232,0)</f>
         <v>0</v>
@@ -35882,8 +36801,12 @@
         <f>IF(AND(Scrobbles!$D232&gt;=Calc!U$1+1,Scrobbles!$D232&lt;=Calc!V$1,ISBLANK(Scrobbles!$D232)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y232">
+        <f>IF(Scrobbles!D232&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C233">
         <f>IF(Scrobbles!$B233=C$1,Scrobbles!$D233,0)</f>
         <v>0</v>
@@ -35960,8 +36883,12 @@
         <f>IF(AND(Scrobbles!$D233&gt;=Calc!U$1+1,Scrobbles!$D233&lt;=Calc!V$1,ISBLANK(Scrobbles!$D233)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y233">
+        <f>IF(Scrobbles!D233&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C234">
         <f>IF(Scrobbles!$B234=C$1,Scrobbles!$D234,0)</f>
         <v>0</v>
@@ -36038,8 +36965,12 @@
         <f>IF(AND(Scrobbles!$D234&gt;=Calc!U$1+1,Scrobbles!$D234&lt;=Calc!V$1,ISBLANK(Scrobbles!$D234)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y234">
+        <f>IF(Scrobbles!D234&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C235">
         <f>IF(Scrobbles!$B235=C$1,Scrobbles!$D235,0)</f>
         <v>0</v>
@@ -36116,8 +37047,12 @@
         <f>IF(AND(Scrobbles!$D235&gt;=Calc!U$1+1,Scrobbles!$D235&lt;=Calc!V$1,ISBLANK(Scrobbles!$D235)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y235">
+        <f>IF(Scrobbles!D235&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C236">
         <f>IF(Scrobbles!$B236=C$1,Scrobbles!$D236,0)</f>
         <v>0</v>
@@ -36194,8 +37129,12 @@
         <f>IF(AND(Scrobbles!$D236&gt;=Calc!U$1+1,Scrobbles!$D236&lt;=Calc!V$1,ISBLANK(Scrobbles!$D236)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y236">
+        <f>IF(Scrobbles!D236&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C237">
         <f>IF(Scrobbles!$B237=C$1,Scrobbles!$D237,0)</f>
         <v>0</v>
@@ -36272,8 +37211,12 @@
         <f>IF(AND(Scrobbles!$D237&gt;=Calc!U$1+1,Scrobbles!$D237&lt;=Calc!V$1,ISBLANK(Scrobbles!$D237)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y237">
+        <f>IF(Scrobbles!D237&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C238">
         <f>IF(Scrobbles!$B238=C$1,Scrobbles!$D238,0)</f>
         <v>0</v>
@@ -36350,8 +37293,12 @@
         <f>IF(AND(Scrobbles!$D238&gt;=Calc!U$1+1,Scrobbles!$D238&lt;=Calc!V$1,ISBLANK(Scrobbles!$D238)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y238">
+        <f>IF(Scrobbles!D238&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C239">
         <f>IF(Scrobbles!$B239=C$1,Scrobbles!$D239,0)</f>
         <v>0</v>
@@ -36428,8 +37375,12 @@
         <f>IF(AND(Scrobbles!$D239&gt;=Calc!U$1+1,Scrobbles!$D239&lt;=Calc!V$1,ISBLANK(Scrobbles!$D239)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y239">
+        <f>IF(Scrobbles!D239&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C240">
         <f>IF(Scrobbles!$B240=C$1,Scrobbles!$D240,0)</f>
         <v>0</v>
@@ -36506,8 +37457,12 @@
         <f>IF(AND(Scrobbles!$D240&gt;=Calc!U$1+1,Scrobbles!$D240&lt;=Calc!V$1,ISBLANK(Scrobbles!$D240)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y240">
+        <f>IF(Scrobbles!D240&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C241">
         <f>IF(Scrobbles!$B241=C$1,Scrobbles!$D241,0)</f>
         <v>0</v>
@@ -36584,8 +37539,12 @@
         <f>IF(AND(Scrobbles!$D241&gt;=Calc!U$1+1,Scrobbles!$D241&lt;=Calc!V$1,ISBLANK(Scrobbles!$D241)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y241">
+        <f>IF(Scrobbles!D241&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C242">
         <f>IF(Scrobbles!$B242=C$1,Scrobbles!$D242,0)</f>
         <v>0</v>
@@ -36662,8 +37621,12 @@
         <f>IF(AND(Scrobbles!$D242&gt;=Calc!U$1+1,Scrobbles!$D242&lt;=Calc!V$1,ISBLANK(Scrobbles!$D242)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y242">
+        <f>IF(Scrobbles!D242&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C243">
         <f>IF(Scrobbles!$B243=C$1,Scrobbles!$D243,0)</f>
         <v>0</v>
@@ -36740,8 +37703,12 @@
         <f>IF(AND(Scrobbles!$D243&gt;=Calc!U$1+1,Scrobbles!$D243&lt;=Calc!V$1,ISBLANK(Scrobbles!$D243)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y243">
+        <f>IF(Scrobbles!D243&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C244">
         <f>IF(Scrobbles!$B244=C$1,Scrobbles!$D244,0)</f>
         <v>0</v>
@@ -36818,8 +37785,12 @@
         <f>IF(AND(Scrobbles!$D244&gt;=Calc!U$1+1,Scrobbles!$D244&lt;=Calc!V$1,ISBLANK(Scrobbles!$D244)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y244">
+        <f>IF(Scrobbles!D244&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C245">
         <f>IF(Scrobbles!$B245=C$1,Scrobbles!$D245,0)</f>
         <v>0</v>
@@ -36896,8 +37867,12 @@
         <f>IF(AND(Scrobbles!$D245&gt;=Calc!U$1+1,Scrobbles!$D245&lt;=Calc!V$1,ISBLANK(Scrobbles!$D245)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="246" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y245">
+        <f>IF(Scrobbles!D245&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C246">
         <f>IF(Scrobbles!$B246=C$1,Scrobbles!$D246,0)</f>
         <v>0</v>
@@ -36974,8 +37949,12 @@
         <f>IF(AND(Scrobbles!$D246&gt;=Calc!U$1+1,Scrobbles!$D246&lt;=Calc!V$1,ISBLANK(Scrobbles!$D246)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="247" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y246">
+        <f>IF(Scrobbles!D246&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C247">
         <f>IF(Scrobbles!$B247=C$1,Scrobbles!$D247,0)</f>
         <v>0</v>
@@ -37052,8 +38031,12 @@
         <f>IF(AND(Scrobbles!$D247&gt;=Calc!U$1+1,Scrobbles!$D247&lt;=Calc!V$1,ISBLANK(Scrobbles!$D247)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="248" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y247">
+        <f>IF(Scrobbles!D247&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C248">
         <f>IF(Scrobbles!$B248=C$1,Scrobbles!$D248,0)</f>
         <v>0</v>
@@ -37130,8 +38113,12 @@
         <f>IF(AND(Scrobbles!$D248&gt;=Calc!U$1+1,Scrobbles!$D248&lt;=Calc!V$1,ISBLANK(Scrobbles!$D248)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="249" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y248">
+        <f>IF(Scrobbles!D248&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C249">
         <f>IF(Scrobbles!$B249=C$1,Scrobbles!$D249,0)</f>
         <v>0</v>
@@ -37208,8 +38195,12 @@
         <f>IF(AND(Scrobbles!$D249&gt;=Calc!U$1+1,Scrobbles!$D249&lt;=Calc!V$1,ISBLANK(Scrobbles!$D249)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="250" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y249">
+        <f>IF(Scrobbles!D249&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C250">
         <f>IF(Scrobbles!$B250=C$1,Scrobbles!$D250,0)</f>
         <v>0</v>
@@ -37286,8 +38277,12 @@
         <f>IF(AND(Scrobbles!$D250&gt;=Calc!U$1+1,Scrobbles!$D250&lt;=Calc!V$1,ISBLANK(Scrobbles!$D250)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="251" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y250">
+        <f>IF(Scrobbles!D250&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C251">
         <f>IF(Scrobbles!$B251=C$1,Scrobbles!$D251,0)</f>
         <v>0</v>
@@ -37364,8 +38359,12 @@
         <f>IF(AND(Scrobbles!$D251&gt;=Calc!U$1+1,Scrobbles!$D251&lt;=Calc!V$1,ISBLANK(Scrobbles!$D251)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="252" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y251">
+        <f>IF(Scrobbles!D251&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C252">
         <f>IF(Scrobbles!$B252=C$1,Scrobbles!$D252,0)</f>
         <v>0</v>
@@ -37442,8 +38441,12 @@
         <f>IF(AND(Scrobbles!$D252&gt;=Calc!U$1+1,Scrobbles!$D252&lt;=Calc!V$1,ISBLANK(Scrobbles!$D252)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y252">
+        <f>IF(Scrobbles!D252&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C253">
         <f>IF(Scrobbles!$B253=C$1,Scrobbles!$D253,0)</f>
         <v>0</v>
@@ -37520,8 +38523,12 @@
         <f>IF(AND(Scrobbles!$D253&gt;=Calc!U$1+1,Scrobbles!$D253&lt;=Calc!V$1,ISBLANK(Scrobbles!$D253)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="254" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y253">
+        <f>IF(Scrobbles!D253&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C254">
         <f>IF(Scrobbles!$B254=C$1,Scrobbles!$D254,0)</f>
         <v>0</v>
@@ -37598,8 +38605,12 @@
         <f>IF(AND(Scrobbles!$D254&gt;=Calc!U$1+1,Scrobbles!$D254&lt;=Calc!V$1,ISBLANK(Scrobbles!$D254)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="255" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y254">
+        <f>IF(Scrobbles!D254&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C255">
         <f>IF(Scrobbles!$B255=C$1,Scrobbles!$D255,0)</f>
         <v>0</v>
@@ -37676,8 +38687,12 @@
         <f>IF(AND(Scrobbles!$D255&gt;=Calc!U$1+1,Scrobbles!$D255&lt;=Calc!V$1,ISBLANK(Scrobbles!$D255)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="256" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y255">
+        <f>IF(Scrobbles!D255&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C256">
         <f>IF(Scrobbles!$B256=C$1,Scrobbles!$D256,0)</f>
         <v>0</v>
@@ -37754,8 +38769,12 @@
         <f>IF(AND(Scrobbles!$D256&gt;=Calc!U$1+1,Scrobbles!$D256&lt;=Calc!V$1,ISBLANK(Scrobbles!$D256)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="257" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y256">
+        <f>IF(Scrobbles!D256&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C257">
         <f>IF(Scrobbles!$B257=C$1,Scrobbles!$D257,0)</f>
         <v>0</v>
@@ -37832,8 +38851,12 @@
         <f>IF(AND(Scrobbles!$D257&gt;=Calc!U$1+1,Scrobbles!$D257&lt;=Calc!V$1,ISBLANK(Scrobbles!$D257)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="258" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y257">
+        <f>IF(Scrobbles!D257&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C258">
         <f>IF(Scrobbles!$B258=C$1,Scrobbles!$D258,0)</f>
         <v>0</v>
@@ -37910,8 +38933,12 @@
         <f>IF(AND(Scrobbles!$D258&gt;=Calc!U$1+1,Scrobbles!$D258&lt;=Calc!V$1,ISBLANK(Scrobbles!$D258)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="259" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y258">
+        <f>IF(Scrobbles!D258&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C259">
         <f>IF(Scrobbles!$B259=C$1,Scrobbles!$D259,0)</f>
         <v>0</v>
@@ -37988,8 +39015,12 @@
         <f>IF(AND(Scrobbles!$D259&gt;=Calc!U$1+1,Scrobbles!$D259&lt;=Calc!V$1,ISBLANK(Scrobbles!$D259)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="260" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y259">
+        <f>IF(Scrobbles!D259&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C260">
         <f>IF(Scrobbles!$B260=C$1,Scrobbles!$D260,0)</f>
         <v>0</v>
@@ -38066,8 +39097,12 @@
         <f>IF(AND(Scrobbles!$D260&gt;=Calc!U$1+1,Scrobbles!$D260&lt;=Calc!V$1,ISBLANK(Scrobbles!$D260)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="261" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y260">
+        <f>IF(Scrobbles!D260&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C261">
         <f>IF(Scrobbles!$B261=C$1,Scrobbles!$D261,0)</f>
         <v>0</v>
@@ -38144,8 +39179,12 @@
         <f>IF(AND(Scrobbles!$D261&gt;=Calc!U$1+1,Scrobbles!$D261&lt;=Calc!V$1,ISBLANK(Scrobbles!$D261)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="262" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y261">
+        <f>IF(Scrobbles!D261&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C262">
         <f>IF(Scrobbles!$B262=C$1,Scrobbles!$D262,0)</f>
         <v>0</v>
@@ -38222,8 +39261,12 @@
         <f>IF(AND(Scrobbles!$D262&gt;=Calc!U$1+1,Scrobbles!$D262&lt;=Calc!V$1,ISBLANK(Scrobbles!$D262)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="263" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y262">
+        <f>IF(Scrobbles!D262&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C263">
         <f>IF(Scrobbles!$B263=C$1,Scrobbles!$D263,0)</f>
         <v>0</v>
@@ -38300,8 +39343,12 @@
         <f>IF(AND(Scrobbles!$D263&gt;=Calc!U$1+1,Scrobbles!$D263&lt;=Calc!V$1,ISBLANK(Scrobbles!$D263)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="264" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y263">
+        <f>IF(Scrobbles!D263&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C264">
         <f>IF(Scrobbles!$B264=C$1,Scrobbles!$D264,0)</f>
         <v>0</v>
@@ -38378,8 +39425,12 @@
         <f>IF(AND(Scrobbles!$D264&gt;=Calc!U$1+1,Scrobbles!$D264&lt;=Calc!V$1,ISBLANK(Scrobbles!$D264)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="265" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y264">
+        <f>IF(Scrobbles!D264&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C265">
         <f>IF(Scrobbles!$B265=C$1,Scrobbles!$D265,0)</f>
         <v>0</v>
@@ -38456,8 +39507,12 @@
         <f>IF(AND(Scrobbles!$D265&gt;=Calc!U$1+1,Scrobbles!$D265&lt;=Calc!V$1,ISBLANK(Scrobbles!$D265)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="266" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y265">
+        <f>IF(Scrobbles!D265&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C266">
         <f>IF(Scrobbles!$B266=C$1,Scrobbles!$D266,0)</f>
         <v>0</v>
@@ -38534,8 +39589,12 @@
         <f>IF(AND(Scrobbles!$D266&gt;=Calc!U$1+1,Scrobbles!$D266&lt;=Calc!V$1,ISBLANK(Scrobbles!$D266)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="267" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y266">
+        <f>IF(Scrobbles!D266&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C267">
         <f>IF(Scrobbles!$B267=C$1,Scrobbles!$D267,0)</f>
         <v>0</v>
@@ -38612,8 +39671,12 @@
         <f>IF(AND(Scrobbles!$D267&gt;=Calc!U$1+1,Scrobbles!$D267&lt;=Calc!V$1,ISBLANK(Scrobbles!$D267)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="268" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y267">
+        <f>IF(Scrobbles!D267&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C268">
         <f>IF(Scrobbles!$B268=C$1,Scrobbles!$D268,0)</f>
         <v>0</v>
@@ -38690,8 +39753,12 @@
         <f>IF(AND(Scrobbles!$D268&gt;=Calc!U$1+1,Scrobbles!$D268&lt;=Calc!V$1,ISBLANK(Scrobbles!$D268)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="269" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y268">
+        <f>IF(Scrobbles!D268&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C269">
         <f>IF(Scrobbles!$B269=C$1,Scrobbles!$D269,0)</f>
         <v>0</v>
@@ -38768,8 +39835,12 @@
         <f>IF(AND(Scrobbles!$D269&gt;=Calc!U$1+1,Scrobbles!$D269&lt;=Calc!V$1,ISBLANK(Scrobbles!$D269)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="270" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y269">
+        <f>IF(Scrobbles!D269&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C270">
         <f>IF(Scrobbles!$B270=C$1,Scrobbles!$D270,0)</f>
         <v>0</v>
@@ -38846,8 +39917,12 @@
         <f>IF(AND(Scrobbles!$D270&gt;=Calc!U$1+1,Scrobbles!$D270&lt;=Calc!V$1,ISBLANK(Scrobbles!$D270)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="271" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y270">
+        <f>IF(Scrobbles!D270&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C271">
         <f>IF(Scrobbles!$B271=C$1,Scrobbles!$D271,0)</f>
         <v>0</v>
@@ -38924,8 +39999,12 @@
         <f>IF(AND(Scrobbles!$D271&gt;=Calc!U$1+1,Scrobbles!$D271&lt;=Calc!V$1,ISBLANK(Scrobbles!$D271)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="272" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y271">
+        <f>IF(Scrobbles!D271&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C272">
         <f>IF(Scrobbles!$B272=C$1,Scrobbles!$D272,0)</f>
         <v>0</v>
@@ -39002,8 +40081,12 @@
         <f>IF(AND(Scrobbles!$D272&gt;=Calc!U$1+1,Scrobbles!$D272&lt;=Calc!V$1,ISBLANK(Scrobbles!$D272)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="273" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y272">
+        <f>IF(Scrobbles!D272&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C273">
         <f>IF(Scrobbles!$B273=C$1,Scrobbles!$D273,0)</f>
         <v>0</v>
@@ -39080,8 +40163,12 @@
         <f>IF(AND(Scrobbles!$D273&gt;=Calc!U$1+1,Scrobbles!$D273&lt;=Calc!V$1,ISBLANK(Scrobbles!$D273)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="274" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y273">
+        <f>IF(Scrobbles!D273&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C274">
         <f>IF(Scrobbles!$B274=C$1,Scrobbles!$D274,0)</f>
         <v>0</v>
@@ -39158,8 +40245,12 @@
         <f>IF(AND(Scrobbles!$D274&gt;=Calc!U$1+1,Scrobbles!$D274&lt;=Calc!V$1,ISBLANK(Scrobbles!$D274)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="275" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y274">
+        <f>IF(Scrobbles!D274&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C275">
         <f>IF(Scrobbles!$B275=C$1,Scrobbles!$D275,0)</f>
         <v>0</v>
@@ -39236,8 +40327,12 @@
         <f>IF(AND(Scrobbles!$D275&gt;=Calc!U$1+1,Scrobbles!$D275&lt;=Calc!V$1,ISBLANK(Scrobbles!$D275)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="276" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y275">
+        <f>IF(Scrobbles!D275&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C276">
         <f>IF(Scrobbles!$B276=C$1,Scrobbles!$D276,0)</f>
         <v>0</v>
@@ -39314,8 +40409,12 @@
         <f>IF(AND(Scrobbles!$D276&gt;=Calc!U$1+1,Scrobbles!$D276&lt;=Calc!V$1,ISBLANK(Scrobbles!$D276)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="277" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y276">
+        <f>IF(Scrobbles!D276&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C277">
         <f>IF(Scrobbles!$B277=C$1,Scrobbles!$D277,0)</f>
         <v>0</v>
@@ -39392,8 +40491,12 @@
         <f>IF(AND(Scrobbles!$D277&gt;=Calc!U$1+1,Scrobbles!$D277&lt;=Calc!V$1,ISBLANK(Scrobbles!$D277)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="278" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y277">
+        <f>IF(Scrobbles!D277&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C278">
         <f>IF(Scrobbles!$B278=C$1,Scrobbles!$D278,0)</f>
         <v>0</v>
@@ -39470,8 +40573,12 @@
         <f>IF(AND(Scrobbles!$D278&gt;=Calc!U$1+1,Scrobbles!$D278&lt;=Calc!V$1,ISBLANK(Scrobbles!$D278)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="279" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y278">
+        <f>IF(Scrobbles!D278&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C279">
         <f>IF(Scrobbles!$B279=C$1,Scrobbles!$D279,0)</f>
         <v>0</v>
@@ -39548,8 +40655,12 @@
         <f>IF(AND(Scrobbles!$D279&gt;=Calc!U$1+1,Scrobbles!$D279&lt;=Calc!V$1,ISBLANK(Scrobbles!$D279)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="280" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y279">
+        <f>IF(Scrobbles!D279&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C280">
         <f>IF(Scrobbles!$B280=C$1,Scrobbles!$D280,0)</f>
         <v>0</v>
@@ -39626,8 +40737,12 @@
         <f>IF(AND(Scrobbles!$D280&gt;=Calc!U$1+1,Scrobbles!$D280&lt;=Calc!V$1,ISBLANK(Scrobbles!$D280)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="281" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y280">
+        <f>IF(Scrobbles!D280&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C281">
         <f>IF(Scrobbles!$B281=C$1,Scrobbles!$D281,0)</f>
         <v>0</v>
@@ -39704,8 +40819,12 @@
         <f>IF(AND(Scrobbles!$D281&gt;=Calc!U$1+1,Scrobbles!$D281&lt;=Calc!V$1,ISBLANK(Scrobbles!$D281)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="282" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y281">
+        <f>IF(Scrobbles!D281&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C282">
         <f>IF(Scrobbles!$B282=C$1,Scrobbles!$D282,0)</f>
         <v>0</v>
@@ -39782,8 +40901,12 @@
         <f>IF(AND(Scrobbles!$D282&gt;=Calc!U$1+1,Scrobbles!$D282&lt;=Calc!V$1,ISBLANK(Scrobbles!$D282)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="283" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y282">
+        <f>IF(Scrobbles!D282&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C283">
         <f>IF(Scrobbles!$B283=C$1,Scrobbles!$D283,0)</f>
         <v>0</v>
@@ -39860,8 +40983,12 @@
         <f>IF(AND(Scrobbles!$D283&gt;=Calc!U$1+1,Scrobbles!$D283&lt;=Calc!V$1,ISBLANK(Scrobbles!$D283)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="284" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y283">
+        <f>IF(Scrobbles!D283&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C284">
         <f>IF(Scrobbles!$B284=C$1,Scrobbles!$D284,0)</f>
         <v>0</v>
@@ -39938,8 +41065,12 @@
         <f>IF(AND(Scrobbles!$D284&gt;=Calc!U$1+1,Scrobbles!$D284&lt;=Calc!V$1,ISBLANK(Scrobbles!$D284)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="285" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y284">
+        <f>IF(Scrobbles!D284&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C285">
         <f>IF(Scrobbles!$B285=C$1,Scrobbles!$D285,0)</f>
         <v>0</v>
@@ -40016,8 +41147,12 @@
         <f>IF(AND(Scrobbles!$D285&gt;=Calc!U$1+1,Scrobbles!$D285&lt;=Calc!V$1,ISBLANK(Scrobbles!$D285)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="286" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y285">
+        <f>IF(Scrobbles!D285&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C286">
         <f>IF(Scrobbles!$B286=C$1,Scrobbles!$D286,0)</f>
         <v>0</v>
@@ -40094,8 +41229,12 @@
         <f>IF(AND(Scrobbles!$D286&gt;=Calc!U$1+1,Scrobbles!$D286&lt;=Calc!V$1,ISBLANK(Scrobbles!$D286)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="287" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y286">
+        <f>IF(Scrobbles!D286&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C287">
         <f>IF(Scrobbles!$B287=C$1,Scrobbles!$D287,0)</f>
         <v>0</v>
@@ -40172,8 +41311,12 @@
         <f>IF(AND(Scrobbles!$D287&gt;=Calc!U$1+1,Scrobbles!$D287&lt;=Calc!V$1,ISBLANK(Scrobbles!$D287)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="288" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y287">
+        <f>IF(Scrobbles!D287&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C288">
         <f>IF(Scrobbles!$B288=C$1,Scrobbles!$D288,0)</f>
         <v>0</v>
@@ -40250,8 +41393,12 @@
         <f>IF(AND(Scrobbles!$D288&gt;=Calc!U$1+1,Scrobbles!$D288&lt;=Calc!V$1,ISBLANK(Scrobbles!$D288)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="289" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y288">
+        <f>IF(Scrobbles!D288&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C289">
         <f>IF(Scrobbles!$B289=C$1,Scrobbles!$D289,0)</f>
         <v>0</v>
@@ -40328,8 +41475,12 @@
         <f>IF(AND(Scrobbles!$D289&gt;=Calc!U$1+1,Scrobbles!$D289&lt;=Calc!V$1,ISBLANK(Scrobbles!$D289)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="290" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y289">
+        <f>IF(Scrobbles!D289&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C290">
         <f>IF(Scrobbles!$B290=C$1,Scrobbles!$D290,0)</f>
         <v>0</v>
@@ -40406,8 +41557,12 @@
         <f>IF(AND(Scrobbles!$D290&gt;=Calc!U$1+1,Scrobbles!$D290&lt;=Calc!V$1,ISBLANK(Scrobbles!$D290)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="291" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y290">
+        <f>IF(Scrobbles!D290&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C291">
         <f>IF(Scrobbles!$B291=C$1,Scrobbles!$D291,0)</f>
         <v>0</v>
@@ -40484,8 +41639,12 @@
         <f>IF(AND(Scrobbles!$D291&gt;=Calc!U$1+1,Scrobbles!$D291&lt;=Calc!V$1,ISBLANK(Scrobbles!$D291)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="292" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y291">
+        <f>IF(Scrobbles!D291&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C292">
         <f>IF(Scrobbles!$B292=C$1,Scrobbles!$D292,0)</f>
         <v>0</v>
@@ -40562,8 +41721,12 @@
         <f>IF(AND(Scrobbles!$D292&gt;=Calc!U$1+1,Scrobbles!$D292&lt;=Calc!V$1,ISBLANK(Scrobbles!$D292)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="293" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y292">
+        <f>IF(Scrobbles!D292&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C293">
         <f>IF(Scrobbles!$B293=C$1,Scrobbles!$D293,0)</f>
         <v>0</v>
@@ -40640,8 +41803,12 @@
         <f>IF(AND(Scrobbles!$D293&gt;=Calc!U$1+1,Scrobbles!$D293&lt;=Calc!V$1,ISBLANK(Scrobbles!$D293)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="294" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y293">
+        <f>IF(Scrobbles!D293&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C294">
         <f>IF(Scrobbles!$B294=C$1,Scrobbles!$D294,0)</f>
         <v>0</v>
@@ -40718,8 +41885,12 @@
         <f>IF(AND(Scrobbles!$D294&gt;=Calc!U$1+1,Scrobbles!$D294&lt;=Calc!V$1,ISBLANK(Scrobbles!$D294)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="295" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y294">
+        <f>IF(Scrobbles!D294&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C295">
         <f>IF(Scrobbles!$B295=C$1,Scrobbles!$D295,0)</f>
         <v>0</v>
@@ -40796,8 +41967,12 @@
         <f>IF(AND(Scrobbles!$D295&gt;=Calc!U$1+1,Scrobbles!$D295&lt;=Calc!V$1,ISBLANK(Scrobbles!$D295)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="296" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y295">
+        <f>IF(Scrobbles!D295&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C296">
         <f>IF(Scrobbles!$B296=C$1,Scrobbles!$D296,0)</f>
         <v>0</v>
@@ -40874,8 +42049,12 @@
         <f>IF(AND(Scrobbles!$D296&gt;=Calc!U$1+1,Scrobbles!$D296&lt;=Calc!V$1,ISBLANK(Scrobbles!$D296)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="297" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y296">
+        <f>IF(Scrobbles!D296&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C297">
         <f>IF(Scrobbles!$B297=C$1,Scrobbles!$D297,0)</f>
         <v>0</v>
@@ -40952,8 +42131,12 @@
         <f>IF(AND(Scrobbles!$D297&gt;=Calc!U$1+1,Scrobbles!$D297&lt;=Calc!V$1,ISBLANK(Scrobbles!$D297)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="298" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y297">
+        <f>IF(Scrobbles!D297&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C298">
         <f>IF(Scrobbles!$B298=C$1,Scrobbles!$D298,0)</f>
         <v>0</v>
@@ -41030,8 +42213,12 @@
         <f>IF(AND(Scrobbles!$D298&gt;=Calc!U$1+1,Scrobbles!$D298&lt;=Calc!V$1,ISBLANK(Scrobbles!$D298)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="299" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y298">
+        <f>IF(Scrobbles!D298&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C299">
         <f>IF(Scrobbles!$B299=C$1,Scrobbles!$D299,0)</f>
         <v>0</v>
@@ -41108,8 +42295,12 @@
         <f>IF(AND(Scrobbles!$D299&gt;=Calc!U$1+1,Scrobbles!$D299&lt;=Calc!V$1,ISBLANK(Scrobbles!$D299)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="300" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y299">
+        <f>IF(Scrobbles!D299&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C300">
         <f>IF(Scrobbles!$B300=C$1,Scrobbles!$D300,0)</f>
         <v>0</v>
@@ -41186,8 +42377,12 @@
         <f>IF(AND(Scrobbles!$D300&gt;=Calc!U$1+1,Scrobbles!$D300&lt;=Calc!V$1,ISBLANK(Scrobbles!$D300)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="301" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y300">
+        <f>IF(Scrobbles!D300&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C301">
         <f>IF(Scrobbles!$B301=C$1,Scrobbles!$D301,0)</f>
         <v>0</v>
@@ -41264,8 +42459,12 @@
         <f>IF(AND(Scrobbles!$D301&gt;=Calc!U$1+1,Scrobbles!$D301&lt;=Calc!V$1,ISBLANK(Scrobbles!$D301)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="302" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y301">
+        <f>IF(Scrobbles!D301&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C302">
         <f>IF(Scrobbles!$B302=C$1,Scrobbles!$D302,0)</f>
         <v>0</v>
@@ -41342,8 +42541,12 @@
         <f>IF(AND(Scrobbles!$D302&gt;=Calc!U$1+1,Scrobbles!$D302&lt;=Calc!V$1,ISBLANK(Scrobbles!$D302)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="303" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y302">
+        <f>IF(Scrobbles!D302&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C303">
         <f>IF(Scrobbles!$B303=C$1,Scrobbles!$D303,0)</f>
         <v>0</v>
@@ -41420,8 +42623,12 @@
         <f>IF(AND(Scrobbles!$D303&gt;=Calc!U$1+1,Scrobbles!$D303&lt;=Calc!V$1,ISBLANK(Scrobbles!$D303)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="304" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y303">
+        <f>IF(Scrobbles!D303&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C304">
         <f>IF(Scrobbles!$B304=C$1,Scrobbles!$D304,0)</f>
         <v>0</v>
@@ -41498,8 +42705,12 @@
         <f>IF(AND(Scrobbles!$D304&gt;=Calc!U$1+1,Scrobbles!$D304&lt;=Calc!V$1,ISBLANK(Scrobbles!$D304)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="305" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y304">
+        <f>IF(Scrobbles!D304&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C305">
         <f>IF(Scrobbles!$B305=C$1,Scrobbles!$D305,0)</f>
         <v>0</v>
@@ -41576,8 +42787,12 @@
         <f>IF(AND(Scrobbles!$D305&gt;=Calc!U$1+1,Scrobbles!$D305&lt;=Calc!V$1,ISBLANK(Scrobbles!$D305)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="306" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y305">
+        <f>IF(Scrobbles!D305&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C306">
         <f>IF(Scrobbles!$B306=C$1,Scrobbles!$D306,0)</f>
         <v>0</v>
@@ -41654,8 +42869,12 @@
         <f>IF(AND(Scrobbles!$D306&gt;=Calc!U$1+1,Scrobbles!$D306&lt;=Calc!V$1,ISBLANK(Scrobbles!$D306)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="307" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y306">
+        <f>IF(Scrobbles!D306&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C307">
         <f>IF(Scrobbles!$B307=C$1,Scrobbles!$D307,0)</f>
         <v>0</v>
@@ -41732,8 +42951,12 @@
         <f>IF(AND(Scrobbles!$D307&gt;=Calc!U$1+1,Scrobbles!$D307&lt;=Calc!V$1,ISBLANK(Scrobbles!$D307)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="308" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y307">
+        <f>IF(Scrobbles!D307&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C308">
         <f>IF(Scrobbles!$B308=C$1,Scrobbles!$D308,0)</f>
         <v>0</v>
@@ -41810,8 +43033,12 @@
         <f>IF(AND(Scrobbles!$D308&gt;=Calc!U$1+1,Scrobbles!$D308&lt;=Calc!V$1,ISBLANK(Scrobbles!$D308)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="309" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y308">
+        <f>IF(Scrobbles!D308&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C309">
         <f>IF(Scrobbles!$B309=C$1,Scrobbles!$D309,0)</f>
         <v>0</v>
@@ -41888,8 +43115,12 @@
         <f>IF(AND(Scrobbles!$D309&gt;=Calc!U$1+1,Scrobbles!$D309&lt;=Calc!V$1,ISBLANK(Scrobbles!$D309)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="310" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y309">
+        <f>IF(Scrobbles!D309&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C310">
         <f>IF(Scrobbles!$B310=C$1,Scrobbles!$D310,0)</f>
         <v>0</v>
@@ -41966,8 +43197,12 @@
         <f>IF(AND(Scrobbles!$D310&gt;=Calc!U$1+1,Scrobbles!$D310&lt;=Calc!V$1,ISBLANK(Scrobbles!$D310)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="311" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y310">
+        <f>IF(Scrobbles!D310&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C311">
         <f>IF(Scrobbles!$B311=C$1,Scrobbles!$D311,0)</f>
         <v>0</v>
@@ -42044,8 +43279,12 @@
         <f>IF(AND(Scrobbles!$D311&gt;=Calc!U$1+1,Scrobbles!$D311&lt;=Calc!V$1,ISBLANK(Scrobbles!$D311)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="312" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y311">
+        <f>IF(Scrobbles!D311&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C312">
         <f>IF(Scrobbles!$B312=C$1,Scrobbles!$D312,0)</f>
         <v>0</v>
@@ -42122,8 +43361,12 @@
         <f>IF(AND(Scrobbles!$D312&gt;=Calc!U$1+1,Scrobbles!$D312&lt;=Calc!V$1,ISBLANK(Scrobbles!$D312)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="313" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y312">
+        <f>IF(Scrobbles!D312&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C313">
         <f>IF(Scrobbles!$B313=C$1,Scrobbles!$D313,0)</f>
         <v>0</v>
@@ -42200,8 +43443,12 @@
         <f>IF(AND(Scrobbles!$D313&gt;=Calc!U$1+1,Scrobbles!$D313&lt;=Calc!V$1,ISBLANK(Scrobbles!$D313)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="314" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y313">
+        <f>IF(Scrobbles!D313&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C314">
         <f>IF(Scrobbles!$B314=C$1,Scrobbles!$D314,0)</f>
         <v>0</v>
@@ -42278,8 +43525,12 @@
         <f>IF(AND(Scrobbles!$D314&gt;=Calc!U$1+1,Scrobbles!$D314&lt;=Calc!V$1,ISBLANK(Scrobbles!$D314)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="315" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y314">
+        <f>IF(Scrobbles!D314&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C315">
         <f>IF(Scrobbles!$B315=C$1,Scrobbles!$D315,0)</f>
         <v>0</v>
@@ -42356,8 +43607,12 @@
         <f>IF(AND(Scrobbles!$D315&gt;=Calc!U$1+1,Scrobbles!$D315&lt;=Calc!V$1,ISBLANK(Scrobbles!$D315)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="316" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y315">
+        <f>IF(Scrobbles!D315&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C316">
         <f>IF(Scrobbles!$B316=C$1,Scrobbles!$D316,0)</f>
         <v>0</v>
@@ -42434,8 +43689,12 @@
         <f>IF(AND(Scrobbles!$D316&gt;=Calc!U$1+1,Scrobbles!$D316&lt;=Calc!V$1,ISBLANK(Scrobbles!$D316)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="317" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y316">
+        <f>IF(Scrobbles!D316&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C317">
         <f>IF(Scrobbles!$B317=C$1,Scrobbles!$D317,0)</f>
         <v>0</v>
@@ -42512,8 +43771,12 @@
         <f>IF(AND(Scrobbles!$D317&gt;=Calc!U$1+1,Scrobbles!$D317&lt;=Calc!V$1,ISBLANK(Scrobbles!$D317)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="318" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y317">
+        <f>IF(Scrobbles!D317&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C318">
         <f>IF(Scrobbles!$B318=C$1,Scrobbles!$D318,0)</f>
         <v>0</v>
@@ -42590,8 +43853,12 @@
         <f>IF(AND(Scrobbles!$D318&gt;=Calc!U$1+1,Scrobbles!$D318&lt;=Calc!V$1,ISBLANK(Scrobbles!$D318)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="319" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y318">
+        <f>IF(Scrobbles!D318&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C319">
         <f>IF(Scrobbles!$B319=C$1,Scrobbles!$D319,0)</f>
         <v>0</v>
@@ -42668,8 +43935,12 @@
         <f>IF(AND(Scrobbles!$D319&gt;=Calc!U$1+1,Scrobbles!$D319&lt;=Calc!V$1,ISBLANK(Scrobbles!$D319)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="320" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y319">
+        <f>IF(Scrobbles!D319&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C320">
         <f>IF(Scrobbles!$B320=C$1,Scrobbles!$D320,0)</f>
         <v>0</v>
@@ -42746,8 +44017,12 @@
         <f>IF(AND(Scrobbles!$D320&gt;=Calc!U$1+1,Scrobbles!$D320&lt;=Calc!V$1,ISBLANK(Scrobbles!$D320)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="321" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y320">
+        <f>IF(Scrobbles!D320&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C321">
         <f>IF(Scrobbles!$B321=C$1,Scrobbles!$D321,0)</f>
         <v>0</v>
@@ -42824,8 +44099,12 @@
         <f>IF(AND(Scrobbles!$D321&gt;=Calc!U$1+1,Scrobbles!$D321&lt;=Calc!V$1,ISBLANK(Scrobbles!$D321)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="322" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y321">
+        <f>IF(Scrobbles!D321&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C322">
         <f>IF(Scrobbles!$B322=C$1,Scrobbles!$D322,0)</f>
         <v>0</v>
@@ -42902,8 +44181,12 @@
         <f>IF(AND(Scrobbles!$D322&gt;=Calc!U$1+1,Scrobbles!$D322&lt;=Calc!V$1,ISBLANK(Scrobbles!$D322)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="323" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y322">
+        <f>IF(Scrobbles!D322&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C323">
         <f>IF(Scrobbles!$B323=C$1,Scrobbles!$D323,0)</f>
         <v>0</v>
@@ -42980,8 +44263,12 @@
         <f>IF(AND(Scrobbles!$D323&gt;=Calc!U$1+1,Scrobbles!$D323&lt;=Calc!V$1,ISBLANK(Scrobbles!$D323)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="324" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y323">
+        <f>IF(Scrobbles!D323&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C324">
         <f>IF(Scrobbles!$B324=C$1,Scrobbles!$D324,0)</f>
         <v>0</v>
@@ -43058,8 +44345,12 @@
         <f>IF(AND(Scrobbles!$D324&gt;=Calc!U$1+1,Scrobbles!$D324&lt;=Calc!V$1,ISBLANK(Scrobbles!$D324)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="325" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y324">
+        <f>IF(Scrobbles!D324&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C325">
         <f>IF(Scrobbles!$B325=C$1,Scrobbles!$D325,0)</f>
         <v>0</v>
@@ -43136,8 +44427,12 @@
         <f>IF(AND(Scrobbles!$D325&gt;=Calc!U$1+1,Scrobbles!$D325&lt;=Calc!V$1,ISBLANK(Scrobbles!$D325)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="326" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y325">
+        <f>IF(Scrobbles!D325&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C326">
         <f>IF(Scrobbles!$B326=C$1,Scrobbles!$D326,0)</f>
         <v>0</v>
@@ -43214,8 +44509,12 @@
         <f>IF(AND(Scrobbles!$D326&gt;=Calc!U$1+1,Scrobbles!$D326&lt;=Calc!V$1,ISBLANK(Scrobbles!$D326)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="327" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y326">
+        <f>IF(Scrobbles!D326&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C327">
         <f>IF(Scrobbles!$B327=C$1,Scrobbles!$D327,0)</f>
         <v>0</v>
@@ -43292,8 +44591,12 @@
         <f>IF(AND(Scrobbles!$D327&gt;=Calc!U$1+1,Scrobbles!$D327&lt;=Calc!V$1,ISBLANK(Scrobbles!$D327)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="328" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y327">
+        <f>IF(Scrobbles!D327&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C328">
         <f>IF(Scrobbles!$B328=C$1,Scrobbles!$D328,0)</f>
         <v>0</v>
@@ -43370,8 +44673,12 @@
         <f>IF(AND(Scrobbles!$D328&gt;=Calc!U$1+1,Scrobbles!$D328&lt;=Calc!V$1,ISBLANK(Scrobbles!$D328)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="329" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y328">
+        <f>IF(Scrobbles!D328&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C329">
         <f>IF(Scrobbles!$B329=C$1,Scrobbles!$D329,0)</f>
         <v>0</v>
@@ -43448,8 +44755,12 @@
         <f>IF(AND(Scrobbles!$D329&gt;=Calc!U$1+1,Scrobbles!$D329&lt;=Calc!V$1,ISBLANK(Scrobbles!$D329)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="330" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y329">
+        <f>IF(Scrobbles!D329&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C330">
         <f>IF(Scrobbles!$B330=C$1,Scrobbles!$D330,0)</f>
         <v>0</v>
@@ -43526,8 +44837,12 @@
         <f>IF(AND(Scrobbles!$D330&gt;=Calc!U$1+1,Scrobbles!$D330&lt;=Calc!V$1,ISBLANK(Scrobbles!$D330)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="331" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y330">
+        <f>IF(Scrobbles!D330&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C331">
         <f>IF(Scrobbles!$B331=C$1,Scrobbles!$D331,0)</f>
         <v>0</v>
@@ -43604,8 +44919,12 @@
         <f>IF(AND(Scrobbles!$D331&gt;=Calc!U$1+1,Scrobbles!$D331&lt;=Calc!V$1,ISBLANK(Scrobbles!$D331)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="332" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y331">
+        <f>IF(Scrobbles!D331&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C332">
         <f>IF(Scrobbles!$B332=C$1,Scrobbles!$D332,0)</f>
         <v>0</v>
@@ -43682,8 +45001,12 @@
         <f>IF(AND(Scrobbles!$D332&gt;=Calc!U$1+1,Scrobbles!$D332&lt;=Calc!V$1,ISBLANK(Scrobbles!$D332)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="333" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y332">
+        <f>IF(Scrobbles!D332&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C333">
         <f>IF(Scrobbles!$B333=C$1,Scrobbles!$D333,0)</f>
         <v>0</v>
@@ -43760,8 +45083,12 @@
         <f>IF(AND(Scrobbles!$D333&gt;=Calc!U$1+1,Scrobbles!$D333&lt;=Calc!V$1,ISBLANK(Scrobbles!$D333)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="334" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y333">
+        <f>IF(Scrobbles!D333&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C334">
         <f>IF(Scrobbles!$B334=C$1,Scrobbles!$D334,0)</f>
         <v>0</v>
@@ -43838,8 +45165,12 @@
         <f>IF(AND(Scrobbles!$D334&gt;=Calc!U$1+1,Scrobbles!$D334&lt;=Calc!V$1,ISBLANK(Scrobbles!$D334)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="335" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y334">
+        <f>IF(Scrobbles!D334&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C335">
         <f>IF(Scrobbles!$B335=C$1,Scrobbles!$D335,0)</f>
         <v>0</v>
@@ -43916,8 +45247,12 @@
         <f>IF(AND(Scrobbles!$D335&gt;=Calc!U$1+1,Scrobbles!$D335&lt;=Calc!V$1,ISBLANK(Scrobbles!$D335)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="336" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y335">
+        <f>IF(Scrobbles!D335&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C336">
         <f>IF(Scrobbles!$B336=C$1,Scrobbles!$D336,0)</f>
         <v>0</v>
@@ -43994,8 +45329,12 @@
         <f>IF(AND(Scrobbles!$D336&gt;=Calc!U$1+1,Scrobbles!$D336&lt;=Calc!V$1,ISBLANK(Scrobbles!$D336)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="337" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y336">
+        <f>IF(Scrobbles!D336&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C337">
         <f>IF(Scrobbles!$B337=C$1,Scrobbles!$D337,0)</f>
         <v>0</v>
@@ -44072,8 +45411,12 @@
         <f>IF(AND(Scrobbles!$D337&gt;=Calc!U$1+1,Scrobbles!$D337&lt;=Calc!V$1,ISBLANK(Scrobbles!$D337)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="338" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y337">
+        <f>IF(Scrobbles!D337&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C338">
         <f>IF(Scrobbles!$B338=C$1,Scrobbles!$D338,0)</f>
         <v>0</v>
@@ -44150,8 +45493,12 @@
         <f>IF(AND(Scrobbles!$D338&gt;=Calc!U$1+1,Scrobbles!$D338&lt;=Calc!V$1,ISBLANK(Scrobbles!$D338)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="339" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y338">
+        <f>IF(Scrobbles!D338&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C339">
         <f>IF(Scrobbles!$B339=C$1,Scrobbles!$D339,0)</f>
         <v>0</v>
@@ -44228,8 +45575,12 @@
         <f>IF(AND(Scrobbles!$D339&gt;=Calc!U$1+1,Scrobbles!$D339&lt;=Calc!V$1,ISBLANK(Scrobbles!$D339)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="340" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y339">
+        <f>IF(Scrobbles!D339&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C340">
         <f>IF(Scrobbles!$B340=C$1,Scrobbles!$D340,0)</f>
         <v>0</v>
@@ -44306,8 +45657,12 @@
         <f>IF(AND(Scrobbles!$D340&gt;=Calc!U$1+1,Scrobbles!$D340&lt;=Calc!V$1,ISBLANK(Scrobbles!$D340)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="341" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y340">
+        <f>IF(Scrobbles!D340&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C341">
         <f>IF(Scrobbles!$B341=C$1,Scrobbles!$D341,0)</f>
         <v>0</v>
@@ -44384,8 +45739,12 @@
         <f>IF(AND(Scrobbles!$D341&gt;=Calc!U$1+1,Scrobbles!$D341&lt;=Calc!V$1,ISBLANK(Scrobbles!$D341)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="342" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y341">
+        <f>IF(Scrobbles!D341&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C342">
         <f>IF(Scrobbles!$B342=C$1,Scrobbles!$D342,0)</f>
         <v>0</v>
@@ -44462,8 +45821,12 @@
         <f>IF(AND(Scrobbles!$D342&gt;=Calc!U$1+1,Scrobbles!$D342&lt;=Calc!V$1,ISBLANK(Scrobbles!$D342)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="343" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y342">
+        <f>IF(Scrobbles!D342&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C343">
         <f>IF(Scrobbles!$B343=C$1,Scrobbles!$D343,0)</f>
         <v>0</v>
@@ -44540,8 +45903,12 @@
         <f>IF(AND(Scrobbles!$D343&gt;=Calc!U$1+1,Scrobbles!$D343&lt;=Calc!V$1,ISBLANK(Scrobbles!$D343)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="344" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y343">
+        <f>IF(Scrobbles!D343&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C344">
         <f>IF(Scrobbles!$B344=C$1,Scrobbles!$D344,0)</f>
         <v>0</v>
@@ -44618,8 +45985,12 @@
         <f>IF(AND(Scrobbles!$D344&gt;=Calc!U$1+1,Scrobbles!$D344&lt;=Calc!V$1,ISBLANK(Scrobbles!$D344)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="345" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y344">
+        <f>IF(Scrobbles!D344&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C345">
         <f>IF(Scrobbles!$B345=C$1,Scrobbles!$D345,0)</f>
         <v>0</v>
@@ -44696,8 +46067,12 @@
         <f>IF(AND(Scrobbles!$D345&gt;=Calc!U$1+1,Scrobbles!$D345&lt;=Calc!V$1,ISBLANK(Scrobbles!$D345)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="346" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y345">
+        <f>IF(Scrobbles!D345&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C346">
         <f>IF(Scrobbles!$B346=C$1,Scrobbles!$D346,0)</f>
         <v>0</v>
@@ -44774,8 +46149,12 @@
         <f>IF(AND(Scrobbles!$D346&gt;=Calc!U$1+1,Scrobbles!$D346&lt;=Calc!V$1,ISBLANK(Scrobbles!$D346)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="347" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y346">
+        <f>IF(Scrobbles!D346&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C347">
         <f>IF(Scrobbles!$B347=C$1,Scrobbles!$D347,0)</f>
         <v>0</v>
@@ -44852,8 +46231,12 @@
         <f>IF(AND(Scrobbles!$D347&gt;=Calc!U$1+1,Scrobbles!$D347&lt;=Calc!V$1,ISBLANK(Scrobbles!$D347)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="348" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y347">
+        <f>IF(Scrobbles!D347&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C348">
         <f>IF(Scrobbles!$B348=C$1,Scrobbles!$D348,0)</f>
         <v>0</v>
@@ -44930,8 +46313,12 @@
         <f>IF(AND(Scrobbles!$D348&gt;=Calc!U$1+1,Scrobbles!$D348&lt;=Calc!V$1,ISBLANK(Scrobbles!$D348)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="349" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y348">
+        <f>IF(Scrobbles!D348&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C349">
         <f>IF(Scrobbles!$B349=C$1,Scrobbles!$D349,0)</f>
         <v>0</v>
@@ -45008,8 +46395,12 @@
         <f>IF(AND(Scrobbles!$D349&gt;=Calc!U$1+1,Scrobbles!$D349&lt;=Calc!V$1,ISBLANK(Scrobbles!$D349)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="350" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y349">
+        <f>IF(Scrobbles!D349&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C350">
         <f>IF(Scrobbles!$B350=C$1,Scrobbles!$D350,0)</f>
         <v>0</v>
@@ -45086,8 +46477,12 @@
         <f>IF(AND(Scrobbles!$D350&gt;=Calc!U$1+1,Scrobbles!$D350&lt;=Calc!V$1,ISBLANK(Scrobbles!$D350)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="351" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y350">
+        <f>IF(Scrobbles!D350&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C351">
         <f>IF(Scrobbles!$B351=C$1,Scrobbles!$D351,0)</f>
         <v>0</v>
@@ -45164,8 +46559,12 @@
         <f>IF(AND(Scrobbles!$D351&gt;=Calc!U$1+1,Scrobbles!$D351&lt;=Calc!V$1,ISBLANK(Scrobbles!$D351)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="352" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y351">
+        <f>IF(Scrobbles!D351&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C352">
         <f>IF(Scrobbles!$B352=C$1,Scrobbles!$D352,0)</f>
         <v>0</v>
@@ -45242,8 +46641,12 @@
         <f>IF(AND(Scrobbles!$D352&gt;=Calc!U$1+1,Scrobbles!$D352&lt;=Calc!V$1,ISBLANK(Scrobbles!$D352)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="353" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y352">
+        <f>IF(Scrobbles!D352&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C353">
         <f>IF(Scrobbles!$B353=C$1,Scrobbles!$D353,0)</f>
         <v>0</v>
@@ -45320,8 +46723,12 @@
         <f>IF(AND(Scrobbles!$D353&gt;=Calc!U$1+1,Scrobbles!$D353&lt;=Calc!V$1,ISBLANK(Scrobbles!$D353)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="354" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y353">
+        <f>IF(Scrobbles!D353&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C354">
         <f>IF(Scrobbles!$B354=C$1,Scrobbles!$D354,0)</f>
         <v>0</v>
@@ -45398,8 +46805,12 @@
         <f>IF(AND(Scrobbles!$D354&gt;=Calc!U$1+1,Scrobbles!$D354&lt;=Calc!V$1,ISBLANK(Scrobbles!$D354)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="355" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y354">
+        <f>IF(Scrobbles!D354&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C355">
         <f>IF(Scrobbles!$B355=C$1,Scrobbles!$D355,0)</f>
         <v>0</v>
@@ -45476,8 +46887,12 @@
         <f>IF(AND(Scrobbles!$D355&gt;=Calc!U$1+1,Scrobbles!$D355&lt;=Calc!V$1,ISBLANK(Scrobbles!$D355)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="356" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y355">
+        <f>IF(Scrobbles!D355&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C356">
         <f>IF(Scrobbles!$B356=C$1,Scrobbles!$D356,0)</f>
         <v>0</v>
@@ -45554,8 +46969,12 @@
         <f>IF(AND(Scrobbles!$D356&gt;=Calc!U$1+1,Scrobbles!$D356&lt;=Calc!V$1,ISBLANK(Scrobbles!$D356)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="357" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y356">
+        <f>IF(Scrobbles!D356&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C357">
         <f>IF(Scrobbles!$B357=C$1,Scrobbles!$D357,0)</f>
         <v>0</v>
@@ -45632,8 +47051,12 @@
         <f>IF(AND(Scrobbles!$D357&gt;=Calc!U$1+1,Scrobbles!$D357&lt;=Calc!V$1,ISBLANK(Scrobbles!$D357)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="358" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y357">
+        <f>IF(Scrobbles!D357&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C358">
         <f>IF(Scrobbles!$B358=C$1,Scrobbles!$D358,0)</f>
         <v>0</v>
@@ -45710,8 +47133,12 @@
         <f>IF(AND(Scrobbles!$D358&gt;=Calc!U$1+1,Scrobbles!$D358&lt;=Calc!V$1,ISBLANK(Scrobbles!$D358)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="359" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y358">
+        <f>IF(Scrobbles!D358&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C359">
         <f>IF(Scrobbles!$B359=C$1,Scrobbles!$D359,0)</f>
         <v>0</v>
@@ -45788,8 +47215,12 @@
         <f>IF(AND(Scrobbles!$D359&gt;=Calc!U$1+1,Scrobbles!$D359&lt;=Calc!V$1,ISBLANK(Scrobbles!$D359)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="360" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y359">
+        <f>IF(Scrobbles!D359&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C360">
         <f>IF(Scrobbles!$B360=C$1,Scrobbles!$D360,0)</f>
         <v>0</v>
@@ -45866,8 +47297,12 @@
         <f>IF(AND(Scrobbles!$D360&gt;=Calc!U$1+1,Scrobbles!$D360&lt;=Calc!V$1,ISBLANK(Scrobbles!$D360)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="361" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y360">
+        <f>IF(Scrobbles!D360&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C361">
         <f>IF(Scrobbles!$B361=C$1,Scrobbles!$D361,0)</f>
         <v>0</v>
@@ -45944,8 +47379,12 @@
         <f>IF(AND(Scrobbles!$D361&gt;=Calc!U$1+1,Scrobbles!$D361&lt;=Calc!V$1,ISBLANK(Scrobbles!$D361)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="362" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y361">
+        <f>IF(Scrobbles!D361&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C362">
         <f>IF(Scrobbles!$B362=C$1,Scrobbles!$D362,0)</f>
         <v>0</v>
@@ -46022,8 +47461,12 @@
         <f>IF(AND(Scrobbles!$D362&gt;=Calc!U$1+1,Scrobbles!$D362&lt;=Calc!V$1,ISBLANK(Scrobbles!$D362)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="363" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y362">
+        <f>IF(Scrobbles!D362&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C363">
         <f>IF(Scrobbles!$B363=C$1,Scrobbles!$D363,0)</f>
         <v>0</v>
@@ -46100,8 +47543,12 @@
         <f>IF(AND(Scrobbles!$D363&gt;=Calc!U$1+1,Scrobbles!$D363&lt;=Calc!V$1,ISBLANK(Scrobbles!$D363)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="364" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y363">
+        <f>IF(Scrobbles!D363&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C364">
         <f>IF(Scrobbles!$B364=C$1,Scrobbles!$D364,0)</f>
         <v>0</v>
@@ -46178,8 +47625,12 @@
         <f>IF(AND(Scrobbles!$D364&gt;=Calc!U$1+1,Scrobbles!$D364&lt;=Calc!V$1,ISBLANK(Scrobbles!$D364)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="365" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y364">
+        <f>IF(Scrobbles!D364&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C365">
         <f>IF(Scrobbles!$B365=C$1,Scrobbles!$D365,0)</f>
         <v>0</v>
@@ -46256,8 +47707,12 @@
         <f>IF(AND(Scrobbles!$D365&gt;=Calc!U$1+1,Scrobbles!$D365&lt;=Calc!V$1,ISBLANK(Scrobbles!$D365)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="366" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y365">
+        <f>IF(Scrobbles!D365&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C366">
         <f>IF(Scrobbles!$B366=C$1,Scrobbles!$D366,0)</f>
         <v>0</v>
@@ -46334,8 +47789,12 @@
         <f>IF(AND(Scrobbles!$D366&gt;=Calc!U$1+1,Scrobbles!$D366&lt;=Calc!V$1,ISBLANK(Scrobbles!$D366)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="367" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y366">
+        <f>IF(Scrobbles!D366&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C367">
         <f>IF(Scrobbles!$B367=C$1,Scrobbles!$D367,0)</f>
         <v>0</v>
@@ -46412,8 +47871,12 @@
         <f>IF(AND(Scrobbles!$D367&gt;=Calc!U$1+1,Scrobbles!$D367&lt;=Calc!V$1,ISBLANK(Scrobbles!$D367)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="368" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y367">
+        <f>IF(Scrobbles!D367&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C368">
         <f>IF(Scrobbles!$B368=C$1,Scrobbles!$D368,0)</f>
         <v>0</v>
@@ -46490,8 +47953,12 @@
         <f>IF(AND(Scrobbles!$D368&gt;=Calc!U$1+1,Scrobbles!$D368&lt;=Calc!V$1,ISBLANK(Scrobbles!$D368)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="369" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y368">
+        <f>IF(Scrobbles!D368&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C369">
         <f>IF(Scrobbles!$B369=C$1,Scrobbles!$D369,0)</f>
         <v>0</v>
@@ -46568,8 +48035,12 @@
         <f>IF(AND(Scrobbles!$D369&gt;=Calc!U$1+1,Scrobbles!$D369&lt;=Calc!V$1,ISBLANK(Scrobbles!$D369)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="370" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y369">
+        <f>IF(Scrobbles!D369&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C370">
         <f>IF(Scrobbles!$B370=C$1,Scrobbles!$D370,0)</f>
         <v>0</v>
@@ -46646,8 +48117,12 @@
         <f>IF(AND(Scrobbles!$D370&gt;=Calc!U$1+1,Scrobbles!$D370&lt;=Calc!V$1,ISBLANK(Scrobbles!$D370)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="371" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y370">
+        <f>IF(Scrobbles!D370&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C371">
         <f>IF(Scrobbles!$B371=C$1,Scrobbles!$D371,0)</f>
         <v>0</v>
@@ -46724,8 +48199,12 @@
         <f>IF(AND(Scrobbles!$D371&gt;=Calc!U$1+1,Scrobbles!$D371&lt;=Calc!V$1,ISBLANK(Scrobbles!$D371)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="372" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y371">
+        <f>IF(Scrobbles!D371&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C372">
         <f>IF(Scrobbles!$B372=C$1,Scrobbles!$D372,0)</f>
         <v>0</v>
@@ -46802,8 +48281,12 @@
         <f>IF(AND(Scrobbles!$D372&gt;=Calc!U$1+1,Scrobbles!$D372&lt;=Calc!V$1,ISBLANK(Scrobbles!$D372)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="373" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y372">
+        <f>IF(Scrobbles!D372&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C373">
         <f>IF(Scrobbles!$B373=C$1,Scrobbles!$D373,0)</f>
         <v>0</v>
@@ -46880,8 +48363,12 @@
         <f>IF(AND(Scrobbles!$D373&gt;=Calc!U$1+1,Scrobbles!$D373&lt;=Calc!V$1,ISBLANK(Scrobbles!$D373)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="374" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y373">
+        <f>IF(Scrobbles!D373&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C374">
         <f>IF(Scrobbles!$B374=C$1,Scrobbles!$D374,0)</f>
         <v>0</v>
@@ -46958,8 +48445,12 @@
         <f>IF(AND(Scrobbles!$D374&gt;=Calc!U$1+1,Scrobbles!$D374&lt;=Calc!V$1,ISBLANK(Scrobbles!$D374)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="375" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y374">
+        <f>IF(Scrobbles!D374&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C375">
         <f>IF(Scrobbles!$B375=C$1,Scrobbles!$D375,0)</f>
         <v>0</v>
@@ -47036,8 +48527,12 @@
         <f>IF(AND(Scrobbles!$D375&gt;=Calc!U$1+1,Scrobbles!$D375&lt;=Calc!V$1,ISBLANK(Scrobbles!$D375)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="376" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y375">
+        <f>IF(Scrobbles!D375&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C376">
         <f>IF(Scrobbles!$B376=C$1,Scrobbles!$D376,0)</f>
         <v>0</v>
@@ -47114,8 +48609,12 @@
         <f>IF(AND(Scrobbles!$D376&gt;=Calc!U$1+1,Scrobbles!$D376&lt;=Calc!V$1,ISBLANK(Scrobbles!$D376)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="377" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y376">
+        <f>IF(Scrobbles!D376&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C377">
         <f>IF(Scrobbles!$B377=C$1,Scrobbles!$D377,0)</f>
         <v>0</v>
@@ -47192,8 +48691,12 @@
         <f>IF(AND(Scrobbles!$D377&gt;=Calc!U$1+1,Scrobbles!$D377&lt;=Calc!V$1,ISBLANK(Scrobbles!$D377)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="378" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y377">
+        <f>IF(Scrobbles!D377&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C378">
         <f>IF(Scrobbles!$B378=C$1,Scrobbles!$D378,0)</f>
         <v>0</v>
@@ -47270,8 +48773,12 @@
         <f>IF(AND(Scrobbles!$D378&gt;=Calc!U$1+1,Scrobbles!$D378&lt;=Calc!V$1,ISBLANK(Scrobbles!$D378)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="379" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y378">
+        <f>IF(Scrobbles!D378&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C379">
         <f>IF(Scrobbles!$B379=C$1,Scrobbles!$D379,0)</f>
         <v>0</v>
@@ -47348,8 +48855,12 @@
         <f>IF(AND(Scrobbles!$D379&gt;=Calc!U$1+1,Scrobbles!$D379&lt;=Calc!V$1,ISBLANK(Scrobbles!$D379)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="380" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y379">
+        <f>IF(Scrobbles!D379&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C380">
         <f>IF(Scrobbles!$B380=C$1,Scrobbles!$D380,0)</f>
         <v>0</v>
@@ -47426,8 +48937,12 @@
         <f>IF(AND(Scrobbles!$D380&gt;=Calc!U$1+1,Scrobbles!$D380&lt;=Calc!V$1,ISBLANK(Scrobbles!$D380)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="381" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y380">
+        <f>IF(Scrobbles!D380&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C381">
         <f>IF(Scrobbles!$B381=C$1,Scrobbles!$D381,0)</f>
         <v>0</v>
@@ -47504,8 +49019,12 @@
         <f>IF(AND(Scrobbles!$D381&gt;=Calc!U$1+1,Scrobbles!$D381&lt;=Calc!V$1,ISBLANK(Scrobbles!$D381)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="382" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y381">
+        <f>IF(Scrobbles!D381&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C382">
         <f>IF(Scrobbles!$B382=C$1,Scrobbles!$D382,0)</f>
         <v>0</v>
@@ -47582,8 +49101,12 @@
         <f>IF(AND(Scrobbles!$D382&gt;=Calc!U$1+1,Scrobbles!$D382&lt;=Calc!V$1,ISBLANK(Scrobbles!$D382)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="383" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y382">
+        <f>IF(Scrobbles!D382&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C383">
         <f>IF(Scrobbles!$B383=C$1,Scrobbles!$D383,0)</f>
         <v>0</v>
@@ -47660,8 +49183,12 @@
         <f>IF(AND(Scrobbles!$D383&gt;=Calc!U$1+1,Scrobbles!$D383&lt;=Calc!V$1,ISBLANK(Scrobbles!$D383)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="384" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y383">
+        <f>IF(Scrobbles!D383&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C384">
         <f>IF(Scrobbles!$B384=C$1,Scrobbles!$D384,0)</f>
         <v>0</v>
@@ -47738,8 +49265,12 @@
         <f>IF(AND(Scrobbles!$D384&gt;=Calc!U$1+1,Scrobbles!$D384&lt;=Calc!V$1,ISBLANK(Scrobbles!$D384)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="385" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y384">
+        <f>IF(Scrobbles!D384&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C385">
         <f>IF(Scrobbles!$B385=C$1,Scrobbles!$D385,0)</f>
         <v>0</v>
@@ -47816,8 +49347,12 @@
         <f>IF(AND(Scrobbles!$D385&gt;=Calc!U$1+1,Scrobbles!$D385&lt;=Calc!V$1,ISBLANK(Scrobbles!$D385)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="386" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y385">
+        <f>IF(Scrobbles!D385&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C386">
         <f>IF(Scrobbles!$B386=C$1,Scrobbles!$D386,0)</f>
         <v>0</v>
@@ -47894,8 +49429,12 @@
         <f>IF(AND(Scrobbles!$D386&gt;=Calc!U$1+1,Scrobbles!$D386&lt;=Calc!V$1,ISBLANK(Scrobbles!$D386)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="387" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y386">
+        <f>IF(Scrobbles!D386&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C387">
         <f>IF(Scrobbles!$B387=C$1,Scrobbles!$D387,0)</f>
         <v>0</v>
@@ -47972,8 +49511,12 @@
         <f>IF(AND(Scrobbles!$D387&gt;=Calc!U$1+1,Scrobbles!$D387&lt;=Calc!V$1,ISBLANK(Scrobbles!$D387)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="388" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y387">
+        <f>IF(Scrobbles!D387&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C388">
         <f>IF(Scrobbles!$B388=C$1,Scrobbles!$D388,0)</f>
         <v>0</v>
@@ -48050,8 +49593,12 @@
         <f>IF(AND(Scrobbles!$D388&gt;=Calc!U$1+1,Scrobbles!$D388&lt;=Calc!V$1,ISBLANK(Scrobbles!$D388)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="389" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y388">
+        <f>IF(Scrobbles!D388&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C389">
         <f>IF(Scrobbles!$B389=C$1,Scrobbles!$D389,0)</f>
         <v>0</v>
@@ -48128,8 +49675,12 @@
         <f>IF(AND(Scrobbles!$D389&gt;=Calc!U$1+1,Scrobbles!$D389&lt;=Calc!V$1,ISBLANK(Scrobbles!$D389)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="390" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y389">
+        <f>IF(Scrobbles!D389&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C390">
         <f>IF(Scrobbles!$B390=C$1,Scrobbles!$D390,0)</f>
         <v>0</v>
@@ -48206,8 +49757,12 @@
         <f>IF(AND(Scrobbles!$D390&gt;=Calc!U$1+1,Scrobbles!$D390&lt;=Calc!V$1,ISBLANK(Scrobbles!$D390)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="391" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y390">
+        <f>IF(Scrobbles!D390&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C391">
         <f>IF(Scrobbles!$B391=C$1,Scrobbles!$D391,0)</f>
         <v>0</v>
@@ -48284,8 +49839,12 @@
         <f>IF(AND(Scrobbles!$D391&gt;=Calc!U$1+1,Scrobbles!$D391&lt;=Calc!V$1,ISBLANK(Scrobbles!$D391)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="392" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y391">
+        <f>IF(Scrobbles!D391&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C392">
         <f>IF(Scrobbles!$B392=C$1,Scrobbles!$D392,0)</f>
         <v>0</v>
@@ -48362,8 +49921,12 @@
         <f>IF(AND(Scrobbles!$D392&gt;=Calc!U$1+1,Scrobbles!$D392&lt;=Calc!V$1,ISBLANK(Scrobbles!$D392)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="393" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y392">
+        <f>IF(Scrobbles!D392&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C393">
         <f>IF(Scrobbles!$B393=C$1,Scrobbles!$D393,0)</f>
         <v>0</v>
@@ -48440,8 +50003,12 @@
         <f>IF(AND(Scrobbles!$D393&gt;=Calc!U$1+1,Scrobbles!$D393&lt;=Calc!V$1,ISBLANK(Scrobbles!$D393)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="394" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y393">
+        <f>IF(Scrobbles!D393&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C394">
         <f>IF(Scrobbles!$B394=C$1,Scrobbles!$D394,0)</f>
         <v>0</v>
@@ -48518,8 +50085,12 @@
         <f>IF(AND(Scrobbles!$D394&gt;=Calc!U$1+1,Scrobbles!$D394&lt;=Calc!V$1,ISBLANK(Scrobbles!$D394)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="395" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y394">
+        <f>IF(Scrobbles!D394&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C395">
         <f>IF(Scrobbles!$B395=C$1,Scrobbles!$D395,0)</f>
         <v>0</v>
@@ -48596,8 +50167,12 @@
         <f>IF(AND(Scrobbles!$D395&gt;=Calc!U$1+1,Scrobbles!$D395&lt;=Calc!V$1,ISBLANK(Scrobbles!$D395)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="396" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y395">
+        <f>IF(Scrobbles!D395&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C396">
         <f>IF(Scrobbles!$B396=C$1,Scrobbles!$D396,0)</f>
         <v>0</v>
@@ -48674,8 +50249,12 @@
         <f>IF(AND(Scrobbles!$D396&gt;=Calc!U$1+1,Scrobbles!$D396&lt;=Calc!V$1,ISBLANK(Scrobbles!$D396)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="397" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y396">
+        <f>IF(Scrobbles!D396&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C397">
         <f>IF(Scrobbles!$B397=C$1,Scrobbles!$D397,0)</f>
         <v>0</v>
@@ -48752,8 +50331,12 @@
         <f>IF(AND(Scrobbles!$D397&gt;=Calc!U$1+1,Scrobbles!$D397&lt;=Calc!V$1,ISBLANK(Scrobbles!$D397)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="398" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y397">
+        <f>IF(Scrobbles!D397&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C398">
         <f>IF(Scrobbles!$B398=C$1,Scrobbles!$D398,0)</f>
         <v>0</v>
@@ -48830,8 +50413,12 @@
         <f>IF(AND(Scrobbles!$D398&gt;=Calc!U$1+1,Scrobbles!$D398&lt;=Calc!V$1,ISBLANK(Scrobbles!$D398)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="399" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y398">
+        <f>IF(Scrobbles!D398&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C399">
         <f>IF(Scrobbles!$B399=C$1,Scrobbles!$D399,0)</f>
         <v>0</v>
@@ -48908,8 +50495,12 @@
         <f>IF(AND(Scrobbles!$D399&gt;=Calc!U$1+1,Scrobbles!$D399&lt;=Calc!V$1,ISBLANK(Scrobbles!$D399)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="400" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y399">
+        <f>IF(Scrobbles!D399&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C400">
         <f>IF(Scrobbles!$B400=C$1,Scrobbles!$D400,0)</f>
         <v>0</v>
@@ -48986,8 +50577,12 @@
         <f>IF(AND(Scrobbles!$D400&gt;=Calc!U$1+1,Scrobbles!$D400&lt;=Calc!V$1,ISBLANK(Scrobbles!$D400)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="401" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y400">
+        <f>IF(Scrobbles!D400&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C401">
         <f>IF(Scrobbles!$B401=C$1,Scrobbles!$D401,0)</f>
         <v>0</v>
@@ -49064,8 +50659,12 @@
         <f>IF(AND(Scrobbles!$D401&gt;=Calc!U$1+1,Scrobbles!$D401&lt;=Calc!V$1,ISBLANK(Scrobbles!$D401)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="402" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y401">
+        <f>IF(Scrobbles!D401&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C402">
         <f>IF(Scrobbles!$B402=C$1,Scrobbles!$D402,0)</f>
         <v>0</v>
@@ -49142,8 +50741,12 @@
         <f>IF(AND(Scrobbles!$D402&gt;=Calc!U$1+1,Scrobbles!$D402&lt;=Calc!V$1,ISBLANK(Scrobbles!$D402)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="403" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y402">
+        <f>IF(Scrobbles!D402&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C403">
         <f>IF(Scrobbles!$B403=C$1,Scrobbles!$D403,0)</f>
         <v>0</v>
@@ -49220,8 +50823,12 @@
         <f>IF(AND(Scrobbles!$D403&gt;=Calc!U$1+1,Scrobbles!$D403&lt;=Calc!V$1,ISBLANK(Scrobbles!$D403)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="404" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y403">
+        <f>IF(Scrobbles!D403&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C404">
         <f>IF(Scrobbles!$B404=C$1,Scrobbles!$D404,0)</f>
         <v>0</v>
@@ -49298,8 +50905,12 @@
         <f>IF(AND(Scrobbles!$D404&gt;=Calc!U$1+1,Scrobbles!$D404&lt;=Calc!V$1,ISBLANK(Scrobbles!$D404)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="405" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y404">
+        <f>IF(Scrobbles!D404&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C405">
         <f>IF(Scrobbles!$B405=C$1,Scrobbles!$D405,0)</f>
         <v>0</v>
@@ -49376,8 +50987,12 @@
         <f>IF(AND(Scrobbles!$D405&gt;=Calc!U$1+1,Scrobbles!$D405&lt;=Calc!V$1,ISBLANK(Scrobbles!$D405)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="406" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="Y405">
+        <f>IF(Scrobbles!D405&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C406">
         <f>IF(Scrobbles!$B406=C$1,Scrobbles!$D406,0)</f>
         <v>0</v>
@@ -49452,6 +51067,10 @@
       </c>
       <c r="V406">
         <f>IF(AND(Scrobbles!$D406&gt;=Calc!U$1+1,Scrobbles!$D406&lt;=Calc!V$1,ISBLANK(Scrobbles!$D406)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y406">
+        <f>IF(Scrobbles!D406&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>

--- a/Seb's Last FM.xlsx
+++ b/Seb's Last FM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwden\Documents\GitHub\The-Music-of-Primes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD6520E-F530-4A69-9F6D-1281A43B3003}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40CA2B98-3C55-41B8-9FC7-BE857076D2DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{28CEC985-A661-4D7B-81F5-9225F8E12012}"/>
   </bookViews>
@@ -472,13 +472,13 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
@@ -9584,8 +9584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF077D24-1D39-4E07-9755-929C3645CE83}">
   <dimension ref="A1:Y122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9687,10 +9687,10 @@
         <v>44</v>
       </c>
       <c r="L3" s="30"/>
-      <c r="M3" s="32" t="s">
+      <c r="M3" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="33"/>
+      <c r="N3" s="34"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -9732,7 +9732,7 @@
       <c r="M4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="34">
+      <c r="N4" s="32">
         <f ca="1">TODAY()</f>
         <v>43571</v>
       </c>

--- a/Seb's Last FM.xlsx
+++ b/Seb's Last FM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\The-Music-of-Primes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA917F29-9869-409C-86B4-7FA2CC7F21C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEAFF965-00CD-439A-AF47-3680347B27AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{28CEC985-A661-4D7B-81F5-9225F8E12012}"/>
   </bookViews>
@@ -2495,1136 +2495,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Poisson Approx.</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Dist Calc'!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Poisson</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Dist Calc'!$A$2:$A$141</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="140"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>133</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>134</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>137</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>139</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Dist Calc'!$C$2:$C$141</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="140"/>
-                <c:pt idx="0">
-                  <c:v>1.0815941557285693E-11</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.7310252432146374E-10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.4479193695584875E-9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.9019988027117254E-8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.8318867442117739E-7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.2510280582694519E-7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.893140974521734E-6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.4043115658096208E-5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.4323583795866266E-5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.2435227676062488E-4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.1398949882057754E-4</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7.2074862229268961E-4</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.5165752260742013E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.945655727567192E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5.3127005086479771E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8.9430458562241039E-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.4113244241853654E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.0962318653341458E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.9405474777604024E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.9078328322868464E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4.9336389507621474E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5.9321135003211505E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>6.8084484492322322E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>7.4744923192658144E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>7.8637887942275761E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>7.9424266821698536E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>7.7133182201841843E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>7.2133809281352115E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>6.5049238726933578E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>5.6637699236381837E-2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>4.7670063523954719E-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3.8828035612253439E-2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3.0637746850293721E-2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2.3442518423330776E-2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1.7409517358503029E-2</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1.2559723237205746E-2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>8.8092503260957054E-3</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>6.0117181279436939E-3</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3.9946284929099473E-3</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2.586265883230156E-3</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1.6325803387890337E-3</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1.0054305744981252E-3</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>6.0445528585899603E-4</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>3.5494176669626881E-4</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2.0368817293365448E-4</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1.1429169703499492E-4</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>6.2736203263774265E-5</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>3.3704024093836309E-5</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1.7729721007695177E-5</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>9.136233784577599E-6</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>4.6137980612117068E-6</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>2.2842823734430319E-6</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1.1091948063353214E-6</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>5.2843714830126057E-7</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>2.4709329619642161E-7</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1.13438285981085E-7</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>5.1148512875399763E-8</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>2.2657893861471093E-8</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>9.8639968965887259E-9</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>4.221456298963805E-9</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1.7765295258139425E-9</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>7.3536672994757404E-10</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>2.9948403114800261E-10</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1.2003129819820802E-10</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>4.7356098117261526E-11</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1.8396022730166903E-11</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>7.0378723323744891E-12</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>2.6523324834694648E-12</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>9.8487345893536492E-13</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>3.604065918567798E-13</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1.3000380634834082E-13</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>4.6233748032331801E-14</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1.6213918580783073E-14</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>5.6082389611612364E-15</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1.9136220779638078E-15</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>6.4425276624781285E-16</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>2.1404450457575551E-16</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>7.0189918708283596E-17</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>2.27217365049246E-17</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>7.2623271740425183E-18</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>2.292172014307151E-18</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>7.1453510322537396E-19</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>2.2002452873708373E-19</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>6.6935172898932452E-20</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>2.0120394234500494E-20</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>5.9769406402486869E-21</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>1.754857571700915E-21</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>5.0931211132698944E-22</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>1.4613785012507419E-22</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>4.1460457479304673E-23</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>1.1631961681693709E-23</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>3.2275498072831285E-24</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>8.8582209384673139E-25</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>2.4050546096376414E-25</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>6.4603860524840394E-26</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>1.7171026086865859E-26</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>4.51633759055577E-27</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>1.1756445789848984E-27</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>3.0290842468743446E-28</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>7.7256946700581751E-29</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>1.9507379041896947E-29</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>4.8768447604742298E-30</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>1.2072581392350615E-30</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>2.9595405840470747E-31</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>7.1854230526144064E-32</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>1.7279231626524857E-32</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>4.1160433827336002E-33</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>9.7130930293477267E-34</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>2.2708851758428932E-34</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>5.2605367605533414E-35</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>1.2075323018543311E-35</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>2.7468640199839221E-36</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>6.1927068307673378E-37</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>1.3837685617422193E-37</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>3.0649259810519876E-38</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>6.7295113931793218E-39</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>1.4648289886015167E-39</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>3.1612762360845805E-40</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>6.7645953356892547E-41</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>1.4353448086231396E-41</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>3.0202047014778812E-42</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>6.3024932820095678E-43</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>1.3044094702519876E-43</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>2.6777511482814931E-44</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>5.4526787495248362E-45</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>1.1014411074040509E-45</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>2.2072530128533139E-46</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>4.3884361082318295E-47</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>8.6568759166292331E-48</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>1.6944660224410073E-48</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>3.2911743897412638E-49</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>6.3436758275546691E-50</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>1.2134682927708552E-50</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>2.3037649919145675E-51</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>4.3410497049136698E-52</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>8.1193707443756485E-53</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>1.5074567007021188E-53</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>2.7783417293962133E-54</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>5.0835600483517207E-55</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>9.2345245482650822E-56</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9FD3-4263-90DB-BD58E71A777A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="453150184"/>
-        <c:axId val="453154448"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="453150184"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="453154448"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="453154448"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="453150184"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -5336,7 +4206,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6407,6 +5277,1017 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Scrobbles!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Moving Deviation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Scrobbles!$E$2:$E$122</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="121"/>
+                <c:pt idx="0">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22.857142857142858</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19.555555555555557</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19.272727272727273</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17.75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18.307692307692307</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18.071428571428573</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.4375</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15.588235294117647</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14.722222222222221</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13.947368421052632</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13.25</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>14.619047619047619</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14.090909090909092</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>16.565217391304348</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16.083333333333332</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>15.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>14.888888888888889</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>14.928571428571429</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14.482758620689655</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14.133333333333333</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>13.806451612903226</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>13.71875</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>13.484848484848484</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>13.205882352941176</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>14.828571428571429</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>14.432432432432432</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>14.421052631578947</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>14.487179487179487</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>15.225</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>16.512195121951219</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>16.357142857142858</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>16.162790697674417</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>15.931818181818182</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>15.644444444444444</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>20.130434782608695</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>20.425531914893618</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>20.416666666666668</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>21.285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>22.78</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>22.431372549019606</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>22.423076923076923</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>22.60377358490566</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>23.037037037037038</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>22.963636363636365</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>23.368421052631579</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>22.96551724137931</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>22.576271186440678</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>22.2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>21.83606557377049</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>21.483870967741936</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>23.444444444444443</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>24.859375</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>25.046153846153846</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>24.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>24.567164179104477</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>24.308823529411764</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>24.217391304347824</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>24.142857142857142</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>23.91549295774648</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>23.583333333333332</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>23.726027397260275</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>23.405405405405407</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>23.786666666666665</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>23.526315789473685</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>23.441558441558442</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>23.371794871794872</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>23.075949367088608</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>22.925000000000001</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>22.790123456790123</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>22.975609756097562</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>22.879518072289155</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>22.845238095238095</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>22.63529411764706</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>22.813953488372093</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>22.586206896551722</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>22.477272727272727</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>22.471910112359552</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>22.544444444444444</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>22.593406593406595</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>22.760869565217391</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>22.677419354838708</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>22.606382978723403</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>22.368421052631579</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>22.135416666666668</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>22.52577319587629</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>22.938775510204081</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>22.757575757575758</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>22.74</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>22.633663366336634</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>22.53921568627451</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>22.320388349514563</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>22.240384615384617</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>22.62857142857143</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>24.10377358490566</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>24.345794392523363</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>24.314814814814813</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>25.128440366972477</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>24.990909090909092</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>24.972972972972972</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>25.107142857142858</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>25.274336283185839</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>25.412280701754387</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>25.304347826086957</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>25.629310344827587</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>25.478632478632477</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>25.347457627118644</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>25.176470588235293</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>25.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Scrobbles!$F$2:$F$122</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="121"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.917325050562489</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36.023429875568482</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33.59166563301082</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.74627348693388</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28.945409561688319</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27.23394022171599</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26.415951035989647</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25.737909783041825</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25.103751654034465</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24.55987581401828</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>23.67531858411142</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22.83000621273392</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22.228110331040039</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21.800139764460226</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21.420327957969963</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21.120831095694115</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20.818700308820347</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.517979920060355</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20.938631852508305</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>20.59988766718951</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23.250668222200151</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>22.878149449250088</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>22.540629982323033</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>22.305570190839362</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>21.895937951260095</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>21.502372911293453</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>21.25967640077981</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>20.986874204818804</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>20.723088813919468</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>20.402564751459558</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>20.134579349544499</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>19.900900676875533</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>21.777426995184996</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>21.560638003340973</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>21.271145969129854</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20.989510637142153</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>20.722676535957852</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>20.974374245731386</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>22.259141121663308</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>22.014953174270122</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>21.793886738917195</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>21.597977311936923</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>21.441554209375312</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>36.814817843559169</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>36.476016416999769</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>36.09410924544644</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>36.227737710100484</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>37.357885379127119</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>37.071872378469379</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>36.713729434560072</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>36.389060984655302</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>36.188274632130224</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>35.861837724225424</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>35.76211083575145</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>35.460693128533855</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>35.285029314115334</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>35.110094830081351</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>34.936036791065277</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>34.76298216181381</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>34.591040204581354</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>37.627994381833517</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>38.985521025239294</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>38.713317433998888</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>38.540546666773388</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>38.260389821217878</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>38.036846436727785</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>37.767737771583739</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>37.50210878424447</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>37.285630082814556</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>37.131429484407889</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>36.896100055248667</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>36.748200514472302</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>36.649435951397059</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>36.477272550759359</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>36.247165050451002</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>36.019264423346407</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>35.885814746889466</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>35.686052947895483</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>35.485596469199749</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>35.308043583599591</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>35.105485649102079</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>34.897296268451406</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>34.744731994707962</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>34.581387529127532</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>34.446877884028822</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>34.265665718141797</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>34.072655314367495</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>33.88974315863171</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>33.706222082524171</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>33.560577793782869</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>33.389252436772331</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>33.218239697781769</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>33.123390568751915</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>33.02859234551768</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>33.079751424384604</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>33.160960673453644</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>33.041782825762702</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>32.876623914264677</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>32.730741528953978</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>32.583729720860795</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>32.500399875727595</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>32.353960402062448</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>32.441964928705758</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>35.651862066081833</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>35.572251814234299</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>35.408632591541057</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>36.245873138688403</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>36.109302617707669</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>35.946772326746959</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>35.813843378657651</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>35.698900056828705</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>35.572217476591312</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>35.435961570144478</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>35.454567862025854</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>35.340008631799982</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>35.218537375823438</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>35.119399474877497</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>34.98195963636114</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3BD3-4A31-A94C-78DAEFD5BA3F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="760453696"/>
+        <c:axId val="761554112"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="760453696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="761554112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="761554112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="760453696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -6615,7 +6496,7 @@
                   <c:v>20.789473684210527</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.2222222222222214</c:v>
+                  <c:v>8.7368421052631575</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>30.777777777777779</c:v>
@@ -9070,7 +8951,7 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -9097,8 +8978,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -9178,11 +9059,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -9193,11 +9069,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -9209,7 +9080,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -9229,9 +9100,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9244,10 +9112,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -9287,22 +9155,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -9407,8 +9276,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -9540,19 +9409,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -9566,6 +9436,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -10178,44 +10059,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>506507</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="12" name="Chart 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EE908B2-D8B9-4FA5-81C3-6999AF71FF5E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
@@ -10246,7 +10089,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10277,6 +10120,42 @@
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>594591</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>117763</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>121227</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>90054</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4C5D5DE-D221-4264-A107-9230EA14E4F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -10635,18 +10514,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF077D24-1D39-4E07-9755-929C3645CE83}">
   <dimension ref="A1:AA122"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="79" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
@@ -10656,6 +10536,8 @@
     <col min="15" max="15" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
@@ -10809,7 +10691,7 @@
       </c>
       <c r="P4" s="30">
         <f ca="1">TODAY()</f>
-        <v>43594</v>
+        <v>43595</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
@@ -10862,7 +10744,7 @@
       </c>
       <c r="P5" s="4">
         <f ca="1">P4-C2</f>
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
@@ -11122,7 +11004,7 @@
       </c>
       <c r="P10" s="23">
         <f ca="1">SUM(Calc!Y2:Y406)/P5</f>
-        <v>0.796875</v>
+        <v>0.79069767441860461</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
@@ -15761,7 +15643,7 @@
     <row r="2" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D2">
         <f ca="1">Scrobbles!P5</f>
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E2">
         <f ca="1">ROUNDDOWN(D2/7,0)</f>
@@ -15769,7 +15651,7 @@
       </c>
       <c r="F2">
         <f ca="1">MOD(D2,7)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="3:8" x14ac:dyDescent="0.3">
@@ -15810,11 +15692,11 @@
       </c>
       <c r="G5" s="11">
         <f t="shared" ref="G5:G11" ca="1" si="1">F5-F$13</f>
-        <v>13.994791666666664</v>
+        <v>14.178294573643409</v>
       </c>
       <c r="H5" s="12">
         <f ca="1">F5/$F$13</f>
-        <v>1.591199119911991</v>
+        <v>1.6036303630363036</v>
       </c>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.3">
@@ -15835,11 +15717,11 @@
       </c>
       <c r="G6" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>8.5912828947368425</v>
+        <v>8.7747858017135876</v>
       </c>
       <c r="H6" s="12">
         <f t="shared" ref="H6:H11" ca="1" si="2">F6/$F$13</f>
-        <v>1.3629320826819524</v>
+        <v>1.3735799895779053</v>
       </c>
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.3">
@@ -15860,11 +15742,11 @@
       </c>
       <c r="G7" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.8824013157894726</v>
+        <v>-2.6988984088127275</v>
       </c>
       <c r="H7" s="12">
         <f t="shared" ca="1" si="2"/>
-        <v>0.87823519194024668</v>
+        <v>0.88509640437727988</v>
       </c>
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.3">
@@ -15877,19 +15759,19 @@
       </c>
       <c r="E8" s="10">
         <f ca="1">$E$2+IF($F$2&gt;2,1,0)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F8" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>9.2222222222222214</v>
+        <v>8.7368421052631575</v>
       </c>
       <c r="G8" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>-14.449652777777779</v>
+        <v>-14.751529987760097</v>
       </c>
       <c r="H8" s="12">
         <f t="shared" ca="1" si="2"/>
-        <v>0.38958562522918955</v>
+        <v>0.37196456487754037</v>
       </c>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.3">
@@ -15910,11 +15792,11 @@
       </c>
       <c r="G9" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>7.1059027777777786</v>
+        <v>7.2894056847545237</v>
       </c>
       <c r="H9" s="12">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3001833516685002</v>
+        <v>1.3103410341034105</v>
       </c>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.3">
@@ -15935,11 +15817,11 @@
       </c>
       <c r="G10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.5052083333333339</v>
+        <v>-8.3217054263565888</v>
       </c>
       <c r="H10" s="12">
         <f t="shared" ca="1" si="2"/>
-        <v>0.64070407040704069</v>
+        <v>0.64570957095709569</v>
       </c>
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.3">
@@ -15960,11 +15842,11 @@
       </c>
       <c r="G11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.171875</v>
+        <v>-3.9883720930232549</v>
       </c>
       <c r="H11" s="12">
         <f t="shared" ca="1" si="2"/>
-        <v>0.82376237623762372</v>
+        <v>0.83019801980198027</v>
       </c>
     </row>
     <row r="12" spans="3:8" x14ac:dyDescent="0.3">
@@ -15985,11 +15867,11 @@
       </c>
       <c r="E13" s="10">
         <f ca="1">SUM(E5:E11)</f>
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F13" s="11">
         <f ca="1">D13/E13</f>
-        <v>23.671875</v>
+        <v>23.488372093023255</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="13"/>
@@ -16013,11 +15895,11 @@
       <c r="E15" s="15"/>
       <c r="F15" s="15">
         <f ca="1">_xlfn.STDEV.P(F5:F11)</f>
-        <v>9.4641249866173318</v>
+        <v>9.570585401320244</v>
       </c>
       <c r="G15" s="15">
         <f ca="1">_xlfn.STDEV.P(G5:G11)</f>
-        <v>9.4641249866173283</v>
+        <v>9.5705854013202369</v>
       </c>
       <c r="H15" s="16"/>
     </row>
@@ -16071,7 +15953,7 @@
       </c>
       <c r="E23" s="17">
         <f t="shared" ref="E23:E29" ca="1" si="4">$D$13/$E$13*E5</f>
-        <v>426.09375</v>
+        <v>422.7906976744186</v>
       </c>
       <c r="G23" s="9" t="s">
         <v>7</v>
@@ -16082,7 +15964,7 @@
       </c>
       <c r="I23" s="17">
         <f ca="1">E23/7</f>
-        <v>60.870535714285715</v>
+        <v>60.398671096345517</v>
       </c>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.3">
@@ -16095,7 +15977,7 @@
       </c>
       <c r="E24" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>449.765625</v>
+        <v>446.27906976744185</v>
       </c>
       <c r="G24" s="9" t="s">
         <v>8</v>
@@ -16106,7 +15988,7 @@
       </c>
       <c r="I24" s="17">
         <f t="shared" ref="I24:I29" ca="1" si="6">E24/7</f>
-        <v>64.252232142857139</v>
+        <v>63.754152823920265</v>
       </c>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.3">
@@ -16119,7 +16001,7 @@
       </c>
       <c r="E25" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>449.765625</v>
+        <v>446.27906976744185</v>
       </c>
       <c r="G25" s="9" t="s">
         <v>9</v>
@@ -16130,7 +16012,7 @@
       </c>
       <c r="I25" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>64.252232142857139</v>
+        <v>63.754152823920265</v>
       </c>
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.3">
@@ -16143,18 +16025,18 @@
       </c>
       <c r="E26" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>426.09375</v>
+        <v>446.27906976744185</v>
       </c>
       <c r="G26" s="9" t="s">
         <v>10</v>
       </c>
       <c r="H26" s="11">
         <f t="shared" ca="1" si="5"/>
-        <v>9.2222222222222214</v>
+        <v>8.7368421052631575</v>
       </c>
       <c r="I26" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>60.870535714285715</v>
+        <v>63.754152823920265</v>
       </c>
     </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.3">
@@ -16167,7 +16049,7 @@
       </c>
       <c r="E27" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>426.09375</v>
+        <v>422.7906976744186</v>
       </c>
       <c r="G27" s="9" t="s">
         <v>3</v>
@@ -16178,7 +16060,7 @@
       </c>
       <c r="I27" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>60.870535714285715</v>
+        <v>60.398671096345517</v>
       </c>
     </row>
     <row r="28" spans="3:9" x14ac:dyDescent="0.3">
@@ -16191,7 +16073,7 @@
       </c>
       <c r="E28" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>426.09375</v>
+        <v>422.7906976744186</v>
       </c>
       <c r="G28" s="9" t="s">
         <v>4</v>
@@ -16202,7 +16084,7 @@
       </c>
       <c r="I28" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>60.870535714285715</v>
+        <v>60.398671096345517</v>
       </c>
     </row>
     <row r="29" spans="3:9" x14ac:dyDescent="0.3">
@@ -16215,7 +16097,7 @@
       </c>
       <c r="E29" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>426.09375</v>
+        <v>422.7906976744186</v>
       </c>
       <c r="G29" s="9" t="s">
         <v>6</v>
@@ -16226,7 +16108,7 @@
       </c>
       <c r="I29" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>60.870535714285715</v>
+        <v>60.398671096345517</v>
       </c>
     </row>
     <row r="30" spans="3:9" x14ac:dyDescent="0.3">
@@ -16243,7 +16125,7 @@
       </c>
       <c r="D31" s="18">
         <f ca="1">_xlfn.CHISQ.TEST(D23:D29,E23:E29)</f>
-        <v>1.5166906262702024E-100</v>
+        <v>1.0303164956272131E-105</v>
       </c>
       <c r="E31" s="16"/>
       <c r="G31" s="14" t="s">
@@ -16251,7 +16133,7 @@
       </c>
       <c r="H31" s="18">
         <f ca="1">_xlfn.CHISQ.TEST(H23:H29,I23:I29)</f>
-        <v>3.3674796088704042E-35</v>
+        <v>1.7562031499102706E-35</v>
       </c>
       <c r="I31" s="16"/>
     </row>
